--- a/Documents/Lコース座標.xlsx
+++ b/Documents/Lコース座標.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/KaoruOta/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/KaoruOta/ET_Robocon/ev3rt-beta7-release/hrp2/sdk/workspace/hiro_jiren/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{A94FB652-4798-C241-8D9D-6E68B17AC764}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{FC56A7EB-DA92-F74E-9BC3-8035C10305C4}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25460" windowHeight="21140" activeTab="5" xr2:uid="{6DB03CC7-F739-074A-9B67-9A070117031E}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25460" windowHeight="21140" xr2:uid="{6DB03CC7-F739-074A-9B67-9A070117031E}"/>
   </bookViews>
   <sheets>
     <sheet name="Start-1st_CR" sheetId="1" r:id="rId1"/>
@@ -103,7 +103,7 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
@@ -422,15 +422,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>606246</xdr:colOff>
-      <xdr:row>519</xdr:row>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>511</xdr:row>
       <xdr:rowOff>198886</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>155755</xdr:colOff>
-      <xdr:row>537</xdr:row>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>565509</xdr:colOff>
+      <xdr:row>529</xdr:row>
       <xdr:rowOff>71887</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -448,8 +448,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6357189" y="136999452"/>
-          <a:ext cx="7217434" cy="4617529"/>
+          <a:off x="0" y="129992886"/>
+          <a:ext cx="7677509" cy="4445001"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -499,14 +499,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>889000</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>488</xdr:row>
       <xdr:rowOff>127000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>32</xdr:col>
-      <xdr:colOff>635000</xdr:colOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>762000</xdr:colOff>
       <xdr:row>506</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
@@ -525,7 +525,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="23241000" y="124079000"/>
+          <a:off x="12192000" y="124079000"/>
           <a:ext cx="9906000" cy="4445000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -576,15 +576,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
-      <xdr:col>35</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>521</xdr:row>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>914400</xdr:colOff>
+      <xdr:row>464</xdr:row>
       <xdr:rowOff>25400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>46</xdr:col>
-      <xdr:colOff>157400</xdr:colOff>
-      <xdr:row>538</xdr:row>
+      <xdr:col>45</xdr:col>
+      <xdr:colOff>538400</xdr:colOff>
+      <xdr:row>481</xdr:row>
       <xdr:rowOff>207400</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -602,7 +602,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="36093400" y="132359400"/>
+          <a:off x="35458400" y="117881400"/>
           <a:ext cx="10800000" cy="4500000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -943,14 +943,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
-      <xdr:col>45</xdr:col>
-      <xdr:colOff>914400</xdr:colOff>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
       <xdr:row>427</xdr:row>
       <xdr:rowOff>25400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>56</xdr:col>
-      <xdr:colOff>538400</xdr:colOff>
+      <xdr:col>45</xdr:col>
+      <xdr:colOff>665400</xdr:colOff>
       <xdr:row>444</xdr:row>
       <xdr:rowOff>207400</xdr:rowOff>
     </xdr:to>
@@ -969,7 +969,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="46634400" y="108483400"/>
+          <a:off x="35585400" y="108483400"/>
           <a:ext cx="10800000" cy="4500000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1023,7 +1023,7 @@
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
@@ -2165,7 +2165,7 @@
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
@@ -3452,7 +3452,7 @@
 
 <file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
@@ -5344,7 +5344,7 @@
 
 <file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
@@ -7363,7 +7363,7 @@
 
 <file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
@@ -9399,6 +9399,68 @@
               <a:schemeClr val="tx1"/>
             </a:solidFill>
           </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>508000</xdr:colOff>
+      <xdr:row>141</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>916000</xdr:colOff>
+      <xdr:row>190</xdr:row>
+      <xdr:rowOff>154000</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="33" name="正方形/長方形 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{14A9711E-0B76-7448-8096-2C6B2F52AEC3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="30988000" y="35814000"/>
+          <a:ext cx="12600000" cy="12600000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -9706,7 +9768,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C5BEF2C-B068-7241-BB55-D06C24E526EC}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A226" zoomScale="10" zoomScaleNormal="10" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A180" zoomScale="10" zoomScaleNormal="10" workbookViewId="0">
       <selection activeCell="AQ596" sqref="AQ596"/>
     </sheetView>
   </sheetViews>
@@ -9722,7 +9784,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{916D0666-C7A9-1646-94EE-678A766806D2}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A196" zoomScale="10" zoomScaleNormal="10" workbookViewId="0">
+    <sheetView topLeftCell="A143" zoomScale="10" zoomScaleNormal="10" workbookViewId="0">
       <selection activeCell="DK286" sqref="DK286"/>
     </sheetView>
   </sheetViews>
@@ -9738,7 +9800,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EE14FA6-716A-D042-BE61-468CE63134C8}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A196" zoomScale="10" zoomScaleNormal="10" workbookViewId="0">
+    <sheetView topLeftCell="A145" zoomScale="10" zoomScaleNormal="10" workbookViewId="0">
       <selection activeCell="DM355" sqref="DM355"/>
     </sheetView>
   </sheetViews>
@@ -9798,8 +9860,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2D3F457-5443-8140-A1C2-32A729A4C0D5}">
   <dimension ref="EI332"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A134" zoomScale="10" zoomScaleNormal="10" workbookViewId="0">
-      <selection activeCell="DI141" sqref="DI140:DI141"/>
+    <sheetView topLeftCell="A95" zoomScale="10" zoomScaleNormal="10" workbookViewId="0">
+      <selection activeCell="DE318" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>

--- a/Documents/Lコース座標.xlsx
+++ b/Documents/Lコース座標.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/KaoruOta/ET_Robocon/ev3rt-beta7-release/hrp2/sdk/workspace/hiro_jiren/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{FC56A7EB-DA92-F74E-9BC3-8035C10305C4}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{AFE036B1-474B-9C41-A2FA-A1D006485F8C}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25460" windowHeight="21140" xr2:uid="{6DB03CC7-F739-074A-9B67-9A070117031E}"/>
+    <workbookView xWindow="60" yWindow="460" windowWidth="29820" windowHeight="17520" activeTab="7" xr2:uid="{6DB03CC7-F739-074A-9B67-9A070117031E}"/>
   </bookViews>
   <sheets>
     <sheet name="Start-1st_CR" sheetId="1" r:id="rId1"/>
@@ -20,6 +20,7 @@
     <sheet name="8th_cn" sheetId="7" r:id="rId5"/>
     <sheet name="9th_cn" sheetId="8" r:id="rId6"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId7"/>
+    <sheet name="カメラ画像" sheetId="9" r:id="rId8"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -66,12 +67,27 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -80,8 +96,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -9461,6 +9480,935 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>799628</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>141109</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>51</xdr:col>
+      <xdr:colOff>783331</xdr:colOff>
+      <xdr:row>114</xdr:row>
+      <xdr:rowOff>205447</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="54" name="図 53">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7D0BE27B-A4F2-104D-AD83-5377BB086279}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2681109" y="1081850"/>
+          <a:ext cx="46080000" cy="25934708"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>752593</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>94073</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>51</xdr:col>
+      <xdr:colOff>736296</xdr:colOff>
+      <xdr:row>114</xdr:row>
+      <xdr:rowOff>143703</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="55" name="正方形/長方形 54">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7CFB2E05-D8F1-614D-AC4D-EDE649473CBB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2634074" y="1034814"/>
+          <a:ext cx="46080000" cy="25920000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>799628</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>141110</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>483183</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>88962</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="56" name="正方形/長方形 55">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CED2E40B-F711-5B4F-862A-CA0ABA641EC2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2681109" y="1081851"/>
+          <a:ext cx="5328000" cy="10296000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>376294</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>94074</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>376297</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>141111</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="57" name="正方形/長方形 56">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{071C2431-5812-884C-BF91-550B56B2930E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4139257" y="10207037"/>
+          <a:ext cx="3762966" cy="987778"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="6000">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>(148,286)</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="6000">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>857954</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>199435</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>73509</xdr:colOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>229657</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="58" name="正方形/長方形 57">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B3BE7111-1110-8945-B61C-8E303C795250}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2739435" y="1140176"/>
+          <a:ext cx="4860000" cy="22608000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>810917</xdr:colOff>
+      <xdr:row>103</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>810920</xdr:colOff>
+      <xdr:row>107</xdr:row>
+      <xdr:rowOff>199437</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="59" name="正方形/長方形 58">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A78F3EF7-64D6-3B49-8E1D-299BE535A3B0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6455361" y="24376474"/>
+          <a:ext cx="3762966" cy="987778"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="6000">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>(135,628)</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="6000">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>869243</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>163687</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>937391</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>231835</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="60" name="正方形/長方形 59">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5017E5DF-6FFB-CC4A-A122-87EF2EA967E9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2750724" y="1104428"/>
+          <a:ext cx="15120000" cy="15120000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>681095</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>163689</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>681098</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>210726</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="61" name="正方形/長方形 60">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1A2257C9-9DB8-8B49-AC05-9141B4B64E57}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15732947" y="16626652"/>
+          <a:ext cx="3762966" cy="987778"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="6000">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>(420,420)</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="6000">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>833495</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>127939</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>687569</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>234013</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="62" name="正方形/長方形 61">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7A2D2499-4BAB-0C44-92D5-641E7B60B30F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2714976" y="1068680"/>
+          <a:ext cx="7380000" cy="7632000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>833494</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>127939</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>714975</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>87199</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="63" name="正方形/長方形 62">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D06CB4EA-C2E8-E049-AC4C-6ECF2C09104B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2714975" y="1068680"/>
+          <a:ext cx="23400000" cy="900000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>410161</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>127941</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>410164</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>174978</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="64" name="正方形/長方形 63">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D091B718-FEBE-014C-8087-8EFBF9E1F985}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="26750902" y="1539052"/>
+          <a:ext cx="3762966" cy="987778"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="6000">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>(650,25)</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="6000">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>844783</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>139228</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>295153</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>135599</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="65" name="正方形/長方形 64">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EC34E721-E9CA-CE4D-A337-F5B6B8EA9A3C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2726264" y="1079969"/>
+          <a:ext cx="37080000" cy="18576000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>856072</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>197554</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>49</xdr:col>
+      <xdr:colOff>273257</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>63480</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="66" name="正方形/長方形 65">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4089BF50-E69C-464B-9689-865643785DA1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2737553" y="1138295"/>
+          <a:ext cx="43632000" cy="5040000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>45</xdr:col>
+      <xdr:colOff>186266</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>92193</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>49</xdr:col>
+      <xdr:colOff>186269</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>139230</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="67" name="正方形/長方形 66">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{956BC2B8-1468-6844-8C21-5F4CB052781A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="42519599" y="5031082"/>
+          <a:ext cx="3762966" cy="987778"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="6000">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>1212,140</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="6000">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -9768,7 +10716,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C5BEF2C-B068-7241-BB55-D06C24E526EC}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A180" zoomScale="10" zoomScaleNormal="10" workbookViewId="0">
+    <sheetView topLeftCell="A180" zoomScale="10" zoomScaleNormal="10" workbookViewId="0">
       <selection activeCell="AQ596" sqref="AQ596"/>
     </sheetView>
   </sheetViews>
@@ -10162,4 +11110,24 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A471FDE8-B665-8644-A301-27AF1529F2A3}">
+  <dimension ref="J17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="27" zoomScaleNormal="24" workbookViewId="0">
+      <selection activeCell="BF73" sqref="BF73"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
+  <sheetData>
+    <row r="17" spans="10:10">
+      <c r="J17" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/Documents/Lコース座標.xlsx
+++ b/Documents/Lコース座標.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/KaoruOta/ET_Robocon/ev3rt-beta7-release/hrp2/sdk/workspace/hiro_jiren/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{AFE036B1-474B-9C41-A2FA-A1D006485F8C}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{B4015175-DF9E-7C4A-AE76-4FEF2AB9C994}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="60" yWindow="460" windowWidth="29820" windowHeight="17520" activeTab="7" xr2:uid="{6DB03CC7-F739-074A-9B67-9A070117031E}"/>
+    <workbookView xWindow="60" yWindow="460" windowWidth="25280" windowHeight="17520" activeTab="8" xr2:uid="{6DB03CC7-F739-074A-9B67-9A070117031E}"/>
   </bookViews>
   <sheets>
     <sheet name="Start-1st_CR" sheetId="1" r:id="rId1"/>
@@ -21,6 +21,7 @@
     <sheet name="9th_cn" sheetId="8" r:id="rId6"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId7"/>
     <sheet name="カメラ画像" sheetId="9" r:id="rId8"/>
+    <sheet name="補正画像" sheetId="10" r:id="rId9"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -10409,6 +10410,741 @@
               <a:schemeClr val="tx1"/>
             </a:solidFill>
           </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>48</xdr:col>
+      <xdr:colOff>711200</xdr:colOff>
+      <xdr:row>104</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2C6C4737-0EA8-0040-A8F5-102445DF639D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="965200" y="571500"/>
+          <a:ext cx="46075600" cy="25895300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>48</xdr:col>
+      <xdr:colOff>728300</xdr:colOff>
+      <xdr:row>104</xdr:row>
+      <xdr:rowOff>24700</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="正方形/長方形 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2487C418-EA64-5C44-8100-C463A5FC9FE6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="977900" y="520700"/>
+          <a:ext cx="46080000" cy="25920000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="25400">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>756800</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>6000</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="正方形/長方形 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9209D00A-961E-C14E-92B4-8F20742ADF0D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="965200" y="508000"/>
+          <a:ext cx="16200000" cy="12960000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="6350"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>790223</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>28224</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>692389</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>2</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="正方形/長方形 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C4C8377E-59B4-F64A-AD95-EFC000AB4450}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13337823" y="12220224"/>
+          <a:ext cx="3762966" cy="987778"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="6000">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>450,365</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="6000">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>50800</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>283200</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>109600</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="正方形/長方形 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EBE29E35-5E09-B548-9A92-7B0468E5A3A1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1016000" y="609600"/>
+          <a:ext cx="12780000" cy="17280000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="6350"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>841023</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>231424</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>743189</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>203202</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="正方形/長方形 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{986CEE06-C89E-4640-8618-BFC098D0ACC2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9527823" y="16741424"/>
+          <a:ext cx="3762966" cy="987778"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="6000">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>355,480</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="6000">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>50800</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>9833</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>190155</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>25317</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="正方形/長方形 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D333AE7C-A278-8C4E-BD73-0BF75E92068B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="993058" y="501446"/>
+          <a:ext cx="17100000" cy="12060000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="6350"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>269113</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>134741</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>171279</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>106518</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="正方形/長方形 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F7CB34E7-B07E-0348-83A5-3675DB140794}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14402984" y="10458612"/>
+          <a:ext cx="3671198" cy="955003"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="6000">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>475,335</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="6000">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>40968</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>39328</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>778387</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>122904</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="正方形/長方形 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D88D2511-4525-D04E-A292-F8E7A74B73A6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="983226" y="530941"/>
+          <a:ext cx="19582580" cy="17781640"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="6350"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>269114</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>175708</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>171280</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>147485</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="正方形/長方形 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5CB1681B-708F-F54D-980B-AEB0A9E16C42}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16287501" y="8533127"/>
+          <a:ext cx="3671198" cy="955003"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="6000">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>530,285</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="6000">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>80295</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>80296</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>778387</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>122902</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="正方形/長方形 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A6360833-D879-5B46-ABEA-BBEDA428C9ED}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1022553" y="571909"/>
+          <a:ext cx="19543253" cy="13807767"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="6350"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -11116,7 +11852,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A471FDE8-B665-8644-A301-27AF1529F2A3}">
   <dimension ref="J17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="27" zoomScaleNormal="24" workbookViewId="0">
+    <sheetView zoomScale="27" zoomScaleNormal="24" workbookViewId="0">
       <selection activeCell="BF73" sqref="BF73"/>
     </sheetView>
   </sheetViews>
@@ -11130,4 +11866,20 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECF1118A-BD67-BB41-B9F3-FB6B0BE6E76F}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="31" zoomScaleNormal="31" workbookViewId="0">
+      <selection activeCell="AX25" sqref="AX25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/Documents/Lコース座標.xlsx
+++ b/Documents/Lコース座標.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/KaoruOta/ET_Robocon/ev3rt-beta7-release/hrp2/sdk/workspace/hiro_jiren/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{B4015175-DF9E-7C4A-AE76-4FEF2AB9C994}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{22EA2E65-A25D-174F-AD2F-125A980AEE40}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="60" yWindow="460" windowWidth="25280" windowHeight="17520" activeTab="8" xr2:uid="{6DB03CC7-F739-074A-9B67-9A070117031E}"/>
+    <workbookView xWindow="60" yWindow="460" windowWidth="25180" windowHeight="21140" firstSheet="4" activeTab="11" xr2:uid="{6DB03CC7-F739-074A-9B67-9A070117031E}"/>
   </bookViews>
   <sheets>
     <sheet name="Start-1st_CR" sheetId="1" r:id="rId1"/>
@@ -22,6 +22,9 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId7"/>
     <sheet name="カメラ画像" sheetId="9" r:id="rId8"/>
     <sheet name="補正画像" sheetId="10" r:id="rId9"/>
+    <sheet name="走行コンセプト①" sheetId="11" r:id="rId10"/>
+    <sheet name="走行コンセプト②" sheetId="12" r:id="rId11"/>
+    <sheet name="走行コンセプト③" sheetId="13" r:id="rId12"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -1041,6 +1044,4288 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>107</xdr:col>
+      <xdr:colOff>508000</xdr:colOff>
+      <xdr:row>534</xdr:row>
+      <xdr:rowOff>143773</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="2" name="グループ化 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F534DB55-DA04-BE4C-8F48-7302D8BE8849}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="0" y="381000"/>
+          <a:ext cx="109220000" cy="135398773"/>
+          <a:chOff x="0" y="390585"/>
+          <a:chExt cx="103066491" cy="140507528"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="3" name="図 2">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{534FE547-40B9-AB40-A21E-1C27D25BB523}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3459672" y="2146779"/>
+            <a:ext cx="98267328" cy="136625881"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="4" name="正方形/長方形 3">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9EEC679C-4E78-BD44-9E15-5F733DB17AA0}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr>
+            <a:spLocks/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4943498" y="128512739"/>
+            <a:ext cx="16297807" cy="6161723"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="76200">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="5" name="直線コネクタ 4">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9AD9F2A9-47EB-5747-BEBF-F211511DAA80}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="0" y="134674462"/>
+            <a:ext cx="103066491" cy="0"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="6" name="直線コネクタ 5">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{07F7FBEA-EF6A-534C-856A-733530D57137}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4943498" y="390585"/>
+            <a:ext cx="0" cy="140507528"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>142</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>789000</xdr:colOff>
+      <xdr:row>192</xdr:row>
+      <xdr:rowOff>27000</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="正方形/長方形 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE5DF465-F908-6B4E-AEB7-8091EC663F93}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="28003500" y="36195000"/>
+          <a:ext cx="11838000" cy="12600000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>155086</xdr:colOff>
+      <xdr:row>464</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>45</xdr:col>
+      <xdr:colOff>555086</xdr:colOff>
+      <xdr:row>510</xdr:row>
+      <xdr:rowOff>196000</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="正方形/長方形 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1401E809-E4E1-5042-BAFD-2383A9F86DD9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4917586" y="117856000"/>
+          <a:ext cx="38500000" cy="11880000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="76200">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>511</xdr:row>
+      <xdr:rowOff>198886</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>565509</xdr:colOff>
+      <xdr:row>529</xdr:row>
+      <xdr:rowOff>71887</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="正方形/長方形 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9835C527-20BB-164C-86A4-66D02452F2B7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="129992886"/>
+          <a:ext cx="7233009" cy="4445001"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="17000">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>(0,0)</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="17000">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>488</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>762000</xdr:colOff>
+      <xdr:row>506</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="正方形/長方形 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2F33A27B-8000-8F46-B430-10603C524ED3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11430000" y="124079000"/>
+          <a:ext cx="9334500" cy="4445000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="17000">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>(480,165)</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="17000">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>914400</xdr:colOff>
+      <xdr:row>464</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>45</xdr:col>
+      <xdr:colOff>538400</xdr:colOff>
+      <xdr:row>481</xdr:row>
+      <xdr:rowOff>207400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="正方形/長方形 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{970DECD9-2690-DF44-8E89-DE3C948A2D9B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="33299400" y="117881400"/>
+          <a:ext cx="10101500" cy="4500000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="17000">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>(1140,330)</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="17000">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>138004</xdr:colOff>
+      <xdr:row>425</xdr:row>
+      <xdr:rowOff>236160</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>61</xdr:col>
+      <xdr:colOff>122004</xdr:colOff>
+      <xdr:row>510</xdr:row>
+      <xdr:rowOff>246160</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="正方形/長方形 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DE3F9E6A-A56E-5D43-9C5F-A588C201630B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4900504" y="108186160"/>
+          <a:ext cx="53324000" cy="21600000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="76200">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>61</xdr:col>
+      <xdr:colOff>762000</xdr:colOff>
+      <xdr:row>424</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>72</xdr:col>
+      <xdr:colOff>386000</xdr:colOff>
+      <xdr:row>442</xdr:row>
+      <xdr:rowOff>55000</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="正方形/長方形 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{216DCC4B-C3CD-A242-89ED-B4E37E99FC99}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="58864500" y="107823000"/>
+          <a:ext cx="10101500" cy="4500000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="17000">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>(1580,605)</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="17000">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>53</xdr:col>
+      <xdr:colOff>660400</xdr:colOff>
+      <xdr:row>486</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>64</xdr:col>
+      <xdr:colOff>284400</xdr:colOff>
+      <xdr:row>504</xdr:row>
+      <xdr:rowOff>80400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="正方形/長方形 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F8BFEB48-6E07-0D48-A115-B9E303F0FD6C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="51142900" y="123596400"/>
+          <a:ext cx="10101500" cy="4500000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="17000">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>R:440</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="17000">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>427</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>45</xdr:col>
+      <xdr:colOff>665400</xdr:colOff>
+      <xdr:row>444</xdr:row>
+      <xdr:rowOff>207400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="正方形/長方形 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6E3BEE9C-346F-DB41-AF9B-8BC5873C682F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="33362900" y="108483400"/>
+          <a:ext cx="10165000" cy="4500000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="17000">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>(1140,605)</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="17000">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>59</xdr:col>
+      <xdr:colOff>373312</xdr:colOff>
+      <xdr:row>288</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>69</xdr:col>
+      <xdr:colOff>949812</xdr:colOff>
+      <xdr:row>306</xdr:row>
+      <xdr:rowOff>80400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="正方形/長方形 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{931BBBF3-46CF-E44E-AAB3-775B9FE93FA3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="56570812" y="73304400"/>
+          <a:ext cx="10101500" cy="4500000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="17000">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>R:550</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="17000">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>279</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>60</xdr:col>
+      <xdr:colOff>992000</xdr:colOff>
+      <xdr:row>434</xdr:row>
+      <xdr:rowOff>230000</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="円/楕円 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D186B890-5054-C64C-AC06-205ED552D579}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="22352000" y="70866000"/>
+          <a:ext cx="39600000" cy="39600000"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="76200">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>①</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>44</xdr:col>
+      <xdr:colOff>957512</xdr:colOff>
+      <xdr:row>354</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>55</xdr:col>
+      <xdr:colOff>632312</xdr:colOff>
+      <xdr:row>372</xdr:row>
+      <xdr:rowOff>80400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="正方形/長方形 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DC21037F-0A11-1943-8A52-D22F30137E67}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="42867512" y="90068400"/>
+          <a:ext cx="10152300" cy="4500000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="17000">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>(1030,1075)</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="17000">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>703512</xdr:colOff>
+      <xdr:row>260</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>48</xdr:col>
+      <xdr:colOff>378312</xdr:colOff>
+      <xdr:row>277</xdr:row>
+      <xdr:rowOff>207400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="正方形/長方形 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C75F3C4E-55C2-8F42-84D4-8A10AA181FAD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="38295512" y="66065400"/>
+          <a:ext cx="10850800" cy="4500000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="17000">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>(1030,1625)</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="17000">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>62</xdr:col>
+      <xdr:colOff>703512</xdr:colOff>
+      <xdr:row>333</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>73</xdr:col>
+      <xdr:colOff>378312</xdr:colOff>
+      <xdr:row>350</xdr:row>
+      <xdr:rowOff>207400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="正方形/長方形 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E0354EE1-8092-3B4B-8D18-A4138507FA84}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="63695512" y="84607400"/>
+          <a:ext cx="10850800" cy="4500000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="17000">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>(1580,1075)</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="17000">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>44</xdr:col>
+      <xdr:colOff>635000</xdr:colOff>
+      <xdr:row>483</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>635000</xdr:colOff>
+      <xdr:row>491</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="22" name="円/楕円 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{97119566-1619-4047-B368-BE416DFE93DB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="45339000" y="122809000"/>
+          <a:ext cx="2032000" cy="2032000"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>59</xdr:col>
+      <xdr:colOff>914400</xdr:colOff>
+      <xdr:row>422</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>61</xdr:col>
+      <xdr:colOff>914400</xdr:colOff>
+      <xdr:row>430</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="23" name="円/楕円 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AE805120-0EF7-C04A-BA1D-A613CB14124A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="60858400" y="107213400"/>
+          <a:ext cx="2032000" cy="2032000"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>60</xdr:col>
+      <xdr:colOff>50800</xdr:colOff>
+      <xdr:row>339</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>62</xdr:col>
+      <xdr:colOff>50800</xdr:colOff>
+      <xdr:row>347</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="24" name="円/楕円 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{028FEEA1-1FDC-3A4B-A5FE-6221B0A81C3E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="61010800" y="86156800"/>
+          <a:ext cx="2032000" cy="2032000"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>965200</xdr:colOff>
+      <xdr:row>283</xdr:row>
+      <xdr:rowOff>203200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>316</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="25" name="円/楕円 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1F4B497B-9887-5543-9333-1CC4CFB444D1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="25349200" y="72085200"/>
+          <a:ext cx="8178800" cy="8178800"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000">
+            <a:alpha val="50000"/>
+          </a:srgbClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>762000</xdr:colOff>
+      <xdr:row>305</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>127000</xdr:colOff>
+      <xdr:row>317</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="26" name="正方形/長方形 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DBB94422-9F9A-CD49-ABD1-EA3B69BED7F6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="31242000" y="77495400"/>
+          <a:ext cx="12573000" cy="3149600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="14200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ライン探索</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>315</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>323</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="27" name="円/楕円 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ECDD1392-223C-8B40-A752-6B409B140574}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="26492200" y="80086200"/>
+          <a:ext cx="2032000" cy="2032000"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>276</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>284</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="28" name="円/楕円 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{584958F7-4974-CE4E-B3A4-5AE235AA85AC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="40830500" y="70205600"/>
+          <a:ext cx="2032000" cy="2032000"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>69850</xdr:colOff>
+      <xdr:row>336</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>254000</xdr:colOff>
+      <xdr:row>384</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="29" name="正方形/長方形 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{99E4F3C9-7115-1649-AE9E-E9770EF8725C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000">
+          <a:off x="3717925" y="89950925"/>
+          <a:ext cx="12192000" cy="3232150"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="14200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>角度、</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="14200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>x</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="14200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>座標補正</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>337</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>350</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="30" name="正方形/長方形 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{38C9A581-E172-384E-9829-8BCDF3068783}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17805400" y="85775800"/>
+          <a:ext cx="16103600" cy="3149600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="14200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ライン・トレース</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>107</xdr:col>
+      <xdr:colOff>508000</xdr:colOff>
+      <xdr:row>533</xdr:row>
+      <xdr:rowOff>16773</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="2" name="グループ化 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{27909394-904B-BD49-8142-A19646F21BE9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="109220000" cy="135398773"/>
+          <a:chOff x="0" y="390585"/>
+          <a:chExt cx="103066491" cy="140507528"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="3" name="図 2">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{93DC8207-1A40-EF49-918A-9A9CC66AE2F1}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3459672" y="2146779"/>
+            <a:ext cx="98267328" cy="136625881"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="4" name="正方形/長方形 3">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{23C7C8F2-2DB9-7046-B0BE-656CF36B02A2}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr>
+            <a:spLocks/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4943498" y="128512739"/>
+            <a:ext cx="16297807" cy="6161723"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="76200">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="5" name="直線コネクタ 4">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{621B16E3-A4A8-2842-8229-EC2595DFAA73}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="0" y="134674462"/>
+            <a:ext cx="103066491" cy="0"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="6" name="直線コネクタ 5">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{22031F6C-7326-1448-B832-630C7D28BF51}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4943498" y="390585"/>
+            <a:ext cx="0" cy="140507528"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>142</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>789000</xdr:colOff>
+      <xdr:row>192</xdr:row>
+      <xdr:rowOff>27000</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="正方形/長方形 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{01BABC32-FE72-EB4B-AF05-2351366ECC01}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="28003500" y="36195000"/>
+          <a:ext cx="11838000" cy="12600000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>155086</xdr:colOff>
+      <xdr:row>464</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>45</xdr:col>
+      <xdr:colOff>555086</xdr:colOff>
+      <xdr:row>510</xdr:row>
+      <xdr:rowOff>196000</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="正方形/長方形 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2A1D9148-E0F5-264A-AA1C-6D475B1CD98A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4917586" y="117856000"/>
+          <a:ext cx="38500000" cy="11880000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="76200">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>511</xdr:row>
+      <xdr:rowOff>198886</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>565509</xdr:colOff>
+      <xdr:row>529</xdr:row>
+      <xdr:rowOff>71887</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="正方形/長方形 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{759C74FF-6C37-404D-95E6-C6048C5D1022}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="129992886"/>
+          <a:ext cx="7233009" cy="4445001"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="17000">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>(0,0)</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="17000">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>488</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>762000</xdr:colOff>
+      <xdr:row>506</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="正方形/長方形 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F6394BCD-C9B1-114E-B870-39F5AFBFB2DF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11430000" y="124079000"/>
+          <a:ext cx="9334500" cy="4445000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="17000">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>(480,165)</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="17000">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>914400</xdr:colOff>
+      <xdr:row>464</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>45</xdr:col>
+      <xdr:colOff>538400</xdr:colOff>
+      <xdr:row>481</xdr:row>
+      <xdr:rowOff>207400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="正方形/長方形 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{388DBC1E-C2F8-9841-AC06-A140371F1752}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="33299400" y="117881400"/>
+          <a:ext cx="10101500" cy="4500000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="17000">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>(1140,330)</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="17000">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>47</xdr:col>
+      <xdr:colOff>253999</xdr:colOff>
+      <xdr:row>279</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>78</xdr:col>
+      <xdr:colOff>941999</xdr:colOff>
+      <xdr:row>406</xdr:row>
+      <xdr:rowOff>53000</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="円/楕円 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B3446BD3-4C8E-4741-9403-8A4D2240A207}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="48005999" y="70993000"/>
+          <a:ext cx="32184000" cy="32184000"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="76200">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>138004</xdr:colOff>
+      <xdr:row>425</xdr:row>
+      <xdr:rowOff>236160</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>61</xdr:col>
+      <xdr:colOff>122004</xdr:colOff>
+      <xdr:row>510</xdr:row>
+      <xdr:rowOff>246160</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="正方形/長方形 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8457BA33-AF54-9049-B031-848BB428A793}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4900504" y="108186160"/>
+          <a:ext cx="53324000" cy="21600000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="76200">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>60</xdr:col>
+      <xdr:colOff>508000</xdr:colOff>
+      <xdr:row>384</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>71</xdr:col>
+      <xdr:colOff>132000</xdr:colOff>
+      <xdr:row>402</xdr:row>
+      <xdr:rowOff>55000</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="正方形/長方形 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{234585C2-3F80-1841-9D08-EEE917E86F18}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="61468000" y="97663000"/>
+          <a:ext cx="10800000" cy="4500000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="17000">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>(1905,810)</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="17000">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>79</xdr:col>
+      <xdr:colOff>787400</xdr:colOff>
+      <xdr:row>328</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>90</xdr:col>
+      <xdr:colOff>411400</xdr:colOff>
+      <xdr:row>345</xdr:row>
+      <xdr:rowOff>207400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="正方形/長方形 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F557DB88-4FF2-114C-A0BA-47B1941B5C67}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="81051400" y="83337400"/>
+          <a:ext cx="10800000" cy="4500000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="17000">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>R:447</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="17000">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>59</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>333</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>69</xdr:col>
+      <xdr:colOff>665400</xdr:colOff>
+      <xdr:row>351</xdr:row>
+      <xdr:rowOff>80400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="正方形/長方形 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{57544E0C-DB32-0647-820B-CBE1D6BCE076}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="59969400" y="84734400"/>
+          <a:ext cx="10800000" cy="4500000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="17000">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>(1625,1178)</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="17000">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>635000</xdr:colOff>
+      <xdr:row>272</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>508000</xdr:colOff>
+      <xdr:row>283</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="正方形/長方形 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{30820094-BB3C-B847-999C-222DB849EBDB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="24003000" y="69240400"/>
+          <a:ext cx="15113000" cy="2641600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="14200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>角度、</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="14200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>y</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="14200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>座標補正</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>44</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>482</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>490</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="円/楕円 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FCAEDE81-6BC8-994D-A9FE-7F5EB593FA59}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="42291000" y="122529600"/>
+          <a:ext cx="1905000" cy="2032000"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>59</xdr:col>
+      <xdr:colOff>660400</xdr:colOff>
+      <xdr:row>421</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>61</xdr:col>
+      <xdr:colOff>660400</xdr:colOff>
+      <xdr:row>429</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="円/楕円 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D2A8F959-2CFA-E548-95FE-8C6EC91BBD66}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="56857900" y="106934000"/>
+          <a:ext cx="1905000" cy="2032000"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>889000</xdr:colOff>
+      <xdr:row>258</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>48</xdr:col>
+      <xdr:colOff>563800</xdr:colOff>
+      <xdr:row>276</xdr:row>
+      <xdr:rowOff>80400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="正方形/長方形 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2F167B2D-AA85-3B43-AB75-2DE5ADCD08AD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="38481000" y="65684400"/>
+          <a:ext cx="10850800" cy="4500000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="17000">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>(1030,1625)</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="17000">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>375988</xdr:colOff>
+      <xdr:row>274</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>375988</xdr:colOff>
+      <xdr:row>282</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="22" name="円/楕円 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B435320B-20D8-8A4A-AD0C-D8BD5668E196}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="41015988" y="69824600"/>
+          <a:ext cx="2032000" cy="2032000"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>275</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>44</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>283</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="23" name="円/楕円 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{07247DC8-1EBB-F042-8806-B0016CCAFF14}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="42862500" y="69977000"/>
+          <a:ext cx="2032000" cy="2032000"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>61</xdr:col>
+      <xdr:colOff>723900</xdr:colOff>
+      <xdr:row>275</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>63</xdr:col>
+      <xdr:colOff>723900</xdr:colOff>
+      <xdr:row>283</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="24" name="円/楕円 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{94605745-CEC9-C04A-8783-97FEE3EEC3EF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="62699900" y="69875400"/>
+          <a:ext cx="2032000" cy="2032000"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>57</xdr:col>
+      <xdr:colOff>88900</xdr:colOff>
+      <xdr:row>248</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>68</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>266</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="25" name="正方形/長方形 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A5937A92-6417-804C-BF44-8D9AA2BE8062}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="58000900" y="63144400"/>
+          <a:ext cx="11099800" cy="4445000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="17000">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>(1625,1625)</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="17000">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>67</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>383</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>93</xdr:col>
+      <xdr:colOff>397400</xdr:colOff>
+      <xdr:row>486</xdr:row>
+      <xdr:rowOff>143400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="26" name="円/楕円 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D1075B2A-09DC-534B-AACA-9B50E0EAD2C6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="68605400" y="97307400"/>
+          <a:ext cx="26280000" cy="26280000"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="76200">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>72</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>389</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>74</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>397</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="27" name="円/楕円 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{552738F6-4BF7-BB4D-BE50-667E505BAEBE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="73266300" y="98983800"/>
+          <a:ext cx="2032000" cy="2032000"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>254000</xdr:colOff>
+      <xdr:row>278</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>62</xdr:col>
+      <xdr:colOff>829300</xdr:colOff>
+      <xdr:row>508</xdr:row>
+      <xdr:rowOff>207000</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="28" name="正方形/長方形 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CAC09337-7E5A-3E46-8639-6C0DFDE5DE13}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5334000" y="70739000"/>
+          <a:ext cx="58487300" cy="58500000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="76200">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>406400</xdr:colOff>
+      <xdr:row>394</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>72</xdr:col>
+      <xdr:colOff>914400</xdr:colOff>
+      <xdr:row>508</xdr:row>
+      <xdr:rowOff>204000</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="29" name="正方形/長方形 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{75F4B7EC-D001-3545-9BEF-158086F8ED32}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5486400" y="100076000"/>
+          <a:ext cx="68580000" cy="29160000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="76200">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>75</xdr:col>
+      <xdr:colOff>914400</xdr:colOff>
+      <xdr:row>490</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>85</xdr:col>
+      <xdr:colOff>660400</xdr:colOff>
+      <xdr:row>507</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="30" name="正方形/長方形 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A83A5316-BFED-D244-B8F1-0C46649C2AED}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="77114400" y="124485400"/>
+          <a:ext cx="9906000" cy="4445000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="17000">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>(2120,165)</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="17000">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>97</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>382</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>108</xdr:col>
+      <xdr:colOff>889000</xdr:colOff>
+      <xdr:row>400</xdr:row>
+      <xdr:rowOff>80400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="31" name="正方形/長方形 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E4733398-CA21-1444-AF1F-F1987322DBD0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="99085400" y="97180400"/>
+          <a:ext cx="11531600" cy="4500000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="17000">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>(2495,885)</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="17000">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>92</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>380</xdr:row>
+      <xdr:rowOff>203200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>94</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>388</xdr:row>
+      <xdr:rowOff>203200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="32" name="円/楕円 31">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2706099C-61A1-2541-BC31-30ED7D3CFA90}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="94119700" y="96723200"/>
+          <a:ext cx="2032000" cy="2032000"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>86</xdr:col>
+      <xdr:colOff>431800</xdr:colOff>
+      <xdr:row>450</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>97</xdr:col>
+      <xdr:colOff>55800</xdr:colOff>
+      <xdr:row>468</xdr:row>
+      <xdr:rowOff>105800</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="33" name="正方形/長方形 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{557DC793-4D24-7747-AF44-730204BB6835}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="87807800" y="114477800"/>
+          <a:ext cx="10800000" cy="4500000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="17000">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>R:365</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="17000">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>76</xdr:col>
+      <xdr:colOff>177800</xdr:colOff>
+      <xdr:row>430</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>85</xdr:col>
+      <xdr:colOff>939800</xdr:colOff>
+      <xdr:row>447</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="34" name="正方形/長方形 33">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{02811950-0EFA-C146-A871-2623FB435A6F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="77393800" y="109270800"/>
+          <a:ext cx="9906000" cy="4445000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="17000">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>(2120,530)</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="17000">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>89</xdr:col>
+      <xdr:colOff>508000</xdr:colOff>
+      <xdr:row>269</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>97</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>301</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="35" name="円/楕円 34">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FEAAAB1A-1098-2842-98D0-F997A3D7B266}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="90932000" y="68326000"/>
+          <a:ext cx="8191500" cy="8178800"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000">
+            <a:alpha val="50000"/>
+          </a:srgbClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>95</xdr:col>
+      <xdr:colOff>482600</xdr:colOff>
+      <xdr:row>291</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>107</xdr:col>
+      <xdr:colOff>863600</xdr:colOff>
+      <xdr:row>303</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="43" name="正方形/長方形 42">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{11CE3A9D-99D5-0C4A-8F78-CF22CD91D3AA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="97002600" y="73914000"/>
+          <a:ext cx="12573000" cy="3149600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="14200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ライン探索</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>92</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>195</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>95</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>259</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="44" name="正方形/長方形 43">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{14F49B49-38A2-424B-A798-E0F791A0DDAA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000">
+          <a:off x="86975950" y="56178450"/>
+          <a:ext cx="16103600" cy="3111500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="14200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ライン・トレース</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>95</xdr:col>
+      <xdr:colOff>736600</xdr:colOff>
+      <xdr:row>204</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>98</xdr:col>
+      <xdr:colOff>920750</xdr:colOff>
+      <xdr:row>252</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="47" name="正方形/長方形 46">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B40B6073-34BE-D149-A9A6-786DE33E88A9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000">
+          <a:off x="92776675" y="56295925"/>
+          <a:ext cx="12192000" cy="3232150"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="14200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>角度、</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="14200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>x</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="14200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>座標補正</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="absolute">
@@ -11122,6 +15407,1220 @@
         </a:prstGeom>
         <a:noFill/>
         <a:ln w="6350"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>107</xdr:col>
+      <xdr:colOff>508000</xdr:colOff>
+      <xdr:row>534</xdr:row>
+      <xdr:rowOff>143773</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="2" name="グループ化 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{429C95C0-E4CD-8C46-B02C-B950B3636A75}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="0" y="381000"/>
+          <a:ext cx="109220000" cy="135398773"/>
+          <a:chOff x="0" y="390585"/>
+          <a:chExt cx="103066491" cy="140507528"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="3" name="図 2">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32DF99FC-9DC1-0E4A-A2CA-A9FF8A7AA60A}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3459672" y="2146779"/>
+            <a:ext cx="98267328" cy="136625881"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="4" name="正方形/長方形 3">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9E800A0E-39A9-CE4D-8802-64917E9CDB23}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr>
+            <a:spLocks/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4943498" y="128512739"/>
+            <a:ext cx="16297807" cy="6161723"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="76200">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="5" name="直線コネクタ 4">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8A2FF88D-6FEE-C441-987B-B7AF2E8A1C34}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="0" y="134674462"/>
+            <a:ext cx="103066491" cy="0"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="6" name="直線コネクタ 5">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AE02F647-31C4-4448-AB2A-AABF08B1E127}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4943498" y="390585"/>
+            <a:ext cx="0" cy="140507528"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>142</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>789000</xdr:colOff>
+      <xdr:row>192</xdr:row>
+      <xdr:rowOff>27000</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="正方形/長方形 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{719945F8-6723-CC47-ACEA-24B78F443E9F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="28003500" y="36195000"/>
+          <a:ext cx="11838000" cy="12600000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>155086</xdr:colOff>
+      <xdr:row>464</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>45</xdr:col>
+      <xdr:colOff>555086</xdr:colOff>
+      <xdr:row>510</xdr:row>
+      <xdr:rowOff>196000</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="正方形/長方形 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{06601019-AFBB-8B4B-889B-5131DFCC835A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4917586" y="117856000"/>
+          <a:ext cx="38500000" cy="11880000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="76200">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>511</xdr:row>
+      <xdr:rowOff>198886</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>565509</xdr:colOff>
+      <xdr:row>529</xdr:row>
+      <xdr:rowOff>71887</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="正方形/長方形 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CAFBB4C6-FC56-8F4B-9C85-C6F8A8619A9D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="129992886"/>
+          <a:ext cx="7233009" cy="4445001"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="17000">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>(0,0)</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="17000">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>488</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>762000</xdr:colOff>
+      <xdr:row>506</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="正方形/長方形 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{71DC3A5A-66F0-BD47-A54F-46A471AE36A7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11430000" y="124079000"/>
+          <a:ext cx="9334500" cy="4445000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="17000">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>(480,165)</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="17000">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>914400</xdr:colOff>
+      <xdr:row>464</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>45</xdr:col>
+      <xdr:colOff>538400</xdr:colOff>
+      <xdr:row>481</xdr:row>
+      <xdr:rowOff>207400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="正方形/長方形 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3340A7AF-61B9-0041-9D53-2D1D1D588465}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="33299400" y="117881400"/>
+          <a:ext cx="10101500" cy="4500000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="17000">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>(1140,330)</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="17000">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>127000</xdr:colOff>
+      <xdr:row>364</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>60</xdr:col>
+      <xdr:colOff>954400</xdr:colOff>
+      <xdr:row>487</xdr:row>
+      <xdr:rowOff>78000</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="円/楕円 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E7EC6A07-C2E0-7C45-A5CE-E49608D4CF26}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="28702000" y="92456000"/>
+          <a:ext cx="29402400" cy="31320000"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="76200">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>138004</xdr:colOff>
+      <xdr:row>425</xdr:row>
+      <xdr:rowOff>236160</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>61</xdr:col>
+      <xdr:colOff>122004</xdr:colOff>
+      <xdr:row>510</xdr:row>
+      <xdr:rowOff>246160</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="正方形/長方形 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DAF72F99-FB93-314D-8A34-C7430290F118}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4900504" y="108186160"/>
+          <a:ext cx="53324000" cy="21600000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="76200">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>61</xdr:col>
+      <xdr:colOff>762000</xdr:colOff>
+      <xdr:row>424</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>72</xdr:col>
+      <xdr:colOff>386000</xdr:colOff>
+      <xdr:row>442</xdr:row>
+      <xdr:rowOff>55000</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="正方形/長方形 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D273238C-7FC7-034A-9827-9D0B42B736D6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="58864500" y="107823000"/>
+          <a:ext cx="10101500" cy="4500000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="17000">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>(1580,605)</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="17000">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>53</xdr:col>
+      <xdr:colOff>660400</xdr:colOff>
+      <xdr:row>486</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>64</xdr:col>
+      <xdr:colOff>284400</xdr:colOff>
+      <xdr:row>504</xdr:row>
+      <xdr:rowOff>80400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="正方形/長方形 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D039DFFE-09CA-AC4D-B00A-EB85074604D1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="51142900" y="123596400"/>
+          <a:ext cx="10101500" cy="4500000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="17000">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>R:440</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="17000">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>427</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>45</xdr:col>
+      <xdr:colOff>665400</xdr:colOff>
+      <xdr:row>444</xdr:row>
+      <xdr:rowOff>207400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="正方形/長方形 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EB681612-7FDE-9949-B7FF-DA539824CBF2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="33362900" y="108483400"/>
+          <a:ext cx="10165000" cy="4500000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="17000">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>(1140,605)</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="17000">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>44</xdr:col>
+      <xdr:colOff>957512</xdr:colOff>
+      <xdr:row>354</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>55</xdr:col>
+      <xdr:colOff>632312</xdr:colOff>
+      <xdr:row>372</xdr:row>
+      <xdr:rowOff>80400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="正方形/長方形 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{759F376F-CEB5-A742-9393-508902A98C12}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="45661512" y="90068400"/>
+          <a:ext cx="10850800" cy="4500000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="17000">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>(1105,1150)</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="17000">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>88900</xdr:colOff>
+      <xdr:row>481</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>635000</xdr:colOff>
+      <xdr:row>493</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="正方形/長方形 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6091B247-366D-754D-8FA5-098CA7BF1ED0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="22440900" y="122326400"/>
+          <a:ext cx="18834100" cy="2895600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="14200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>角度、</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="14200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>y</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="14200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>座標補正</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>44</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>482</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>490</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="円/楕円 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{329F5979-DB79-9D45-9479-F769AAC8CB87}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="45085000" y="122529600"/>
+          <a:ext cx="2032000" cy="2032000"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>59</xdr:col>
+      <xdr:colOff>660400</xdr:colOff>
+      <xdr:row>421</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>61</xdr:col>
+      <xdr:colOff>660400</xdr:colOff>
+      <xdr:row>429</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="22" name="円/楕円 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00449272-6E6C-2D44-9CA4-EAA3907DB250}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="60604400" y="106934000"/>
+          <a:ext cx="2032000" cy="2032000"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -11452,8 +16951,56 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C5BEF2C-B068-7241-BB55-D06C24E526EC}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A180" zoomScale="10" zoomScaleNormal="10" workbookViewId="0">
+    <sheetView topLeftCell="A176" zoomScale="10" zoomScaleNormal="10" workbookViewId="0">
       <selection activeCell="AQ596" sqref="AQ596"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CD11F90-6172-504F-8D09-785584568889}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView topLeftCell="A123" zoomScale="10" zoomScaleNormal="10" workbookViewId="0">
+      <selection activeCell="DR426" sqref="DR426"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4E69A08-6157-3046-A0AD-F5965CF91422}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView topLeftCell="A120" zoomScale="10" zoomScaleNormal="10" workbookViewId="0">
+      <selection activeCell="DF328" sqref="DF328"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB0DD1CD-4FA4-9E45-B6BB-0F24850E37CC}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A107" zoomScale="10" zoomScaleNormal="10" workbookViewId="0">
+      <selection activeCell="DE326" sqref="DE325:DE326"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -11544,7 +17091,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2D3F457-5443-8140-A1C2-32A729A4C0D5}">
   <dimension ref="EI332"/>
   <sheetViews>
-    <sheetView topLeftCell="A95" zoomScale="10" zoomScaleNormal="10" workbookViewId="0">
+    <sheetView topLeftCell="A123" zoomScale="10" zoomScaleNormal="10" workbookViewId="0">
       <selection activeCell="DE318" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -11872,7 +17419,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECF1118A-BD67-BB41-B9F3-FB6B0BE6E76F}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="31" zoomScaleNormal="31" workbookViewId="0">
+    <sheetView zoomScale="31" zoomScaleNormal="31" workbookViewId="0">
       <selection activeCell="AX25" sqref="AX25"/>
     </sheetView>
   </sheetViews>

--- a/Documents/Lコース座標.xlsx
+++ b/Documents/Lコース座標.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/KaoruOta/ET_Robocon/ev3rt-beta7-release/hrp2/sdk/workspace/hiro_jiren/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{22EA2E65-A25D-174F-AD2F-125A980AEE40}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{6D2F5694-0155-7746-8969-480A4596373B}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="60" yWindow="460" windowWidth="25180" windowHeight="21140" firstSheet="4" activeTab="11" xr2:uid="{6DB03CC7-F739-074A-9B67-9A070117031E}"/>
+    <workbookView xWindow="60" yWindow="460" windowWidth="25180" windowHeight="21140" activeTab="9" xr2:uid="{6DB03CC7-F739-074A-9B67-9A070117031E}"/>
   </bookViews>
   <sheets>
     <sheet name="Start-1st_CR" sheetId="1" r:id="rId1"/>
@@ -15914,15 +15914,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>34</xdr:col>
-      <xdr:colOff>914400</xdr:colOff>
-      <xdr:row>464</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>45</xdr:col>
-      <xdr:colOff>538400</xdr:colOff>
-      <xdr:row>481</xdr:row>
-      <xdr:rowOff>207400</xdr:rowOff>
+      <xdr:colOff>279400</xdr:colOff>
+      <xdr:row>491</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>44</xdr:col>
+      <xdr:colOff>919400</xdr:colOff>
+      <xdr:row>509</xdr:row>
+      <xdr:rowOff>80400</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -15939,8 +15939,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="33299400" y="117881400"/>
-          <a:ext cx="10101500" cy="4500000"/>
+          <a:off x="34823400" y="124866400"/>
+          <a:ext cx="10800000" cy="4500000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -15976,7 +15976,7 @@
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>(1140,330)</a:t>
+            <a:t>(1140,165</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="17000">
             <a:solidFill>
@@ -16967,7 +16967,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CD11F90-6172-504F-8D09-785584568889}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A123" zoomScale="10" zoomScaleNormal="10" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A125" zoomScale="10" zoomScaleNormal="10" workbookViewId="0">
       <selection activeCell="DR426" sqref="DR426"/>
     </sheetView>
   </sheetViews>
@@ -16999,7 +16999,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB0DD1CD-4FA4-9E45-B6BB-0F24850E37CC}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A107" zoomScale="10" zoomScaleNormal="10" workbookViewId="0">
+    <sheetView topLeftCell="A107" zoomScale="10" zoomScaleNormal="10" workbookViewId="0">
       <selection activeCell="DE326" sqref="DE325:DE326"/>
     </sheetView>
   </sheetViews>

--- a/Documents/Lコース座標.xlsx
+++ b/Documents/Lコース座標.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/KaoruOta/ET_Robocon/ev3rt-beta7-release/hrp2/sdk/workspace/hiro_jiren/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{6D2F5694-0155-7746-8969-480A4596373B}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{D809292B-0AB3-9541-A577-76AF5C83E664}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="60" yWindow="460" windowWidth="25180" windowHeight="21140" activeTab="9" xr2:uid="{6DB03CC7-F739-074A-9B67-9A070117031E}"/>
+    <workbookView xWindow="20880" yWindow="460" windowWidth="17760" windowHeight="21140" firstSheet="4" activeTab="11" xr2:uid="{6DB03CC7-F739-074A-9B67-9A070117031E}"/>
   </bookViews>
   <sheets>
     <sheet name="Start-1st_CR" sheetId="1" r:id="rId1"/>
@@ -22,9 +22,10 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId7"/>
     <sheet name="カメラ画像" sheetId="9" r:id="rId8"/>
     <sheet name="補正画像" sheetId="10" r:id="rId9"/>
-    <sheet name="走行コンセプト①" sheetId="11" r:id="rId10"/>
-    <sheet name="走行コンセプト②" sheetId="12" r:id="rId11"/>
-    <sheet name="走行コンセプト③" sheetId="13" r:id="rId12"/>
+    <sheet name="Sheet1" sheetId="14" r:id="rId10"/>
+    <sheet name="走行コンセプト①" sheetId="11" r:id="rId11"/>
+    <sheet name="走行コンセプト②" sheetId="12" r:id="rId12"/>
+    <sheet name="走行コンセプト③" sheetId="13" r:id="rId13"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -16964,10 +16965,23 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F9F3098-9E40-9743-A996-E0ABF115B044}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CD11F90-6172-504F-8D09-785584568889}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A125" zoomScale="10" zoomScaleNormal="10" workbookViewId="0">
+    <sheetView topLeftCell="A125" zoomScale="10" zoomScaleNormal="10" workbookViewId="0">
       <selection activeCell="DR426" sqref="DR426"/>
     </sheetView>
   </sheetViews>
@@ -16979,11 +16993,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4E69A08-6157-3046-A0AD-F5965CF91422}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A120" zoomScale="10" zoomScaleNormal="10" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A136" zoomScale="10" zoomScaleNormal="10" workbookViewId="0">
       <selection activeCell="DF328" sqref="DF328"/>
     </sheetView>
   </sheetViews>
@@ -16995,7 +17009,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB0DD1CD-4FA4-9E45-B6BB-0F24850E37CC}">
   <dimension ref="A1"/>
   <sheetViews>

--- a/Documents/Lコース座標.xlsx
+++ b/Documents/Lコース座標.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/KaoruOta/ET_Robocon/ev3rt-beta7-release/hrp2/sdk/workspace/hiro_jiren/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{D809292B-0AB3-9541-A577-76AF5C83E664}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{3758D16D-B1A8-9144-B59F-649E7E02C97C}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20880" yWindow="460" windowWidth="17760" windowHeight="21140" firstSheet="4" activeTab="11" xr2:uid="{6DB03CC7-F739-074A-9B67-9A070117031E}"/>
+    <workbookView xWindow="3300" yWindow="460" windowWidth="35100" windowHeight="21140" activeTab="5" xr2:uid="{6DB03CC7-F739-074A-9B67-9A070117031E}"/>
   </bookViews>
   <sheets>
     <sheet name="Start-1st_CR" sheetId="1" r:id="rId1"/>
@@ -19,13 +19,13 @@
     <sheet name="4th_cn" sheetId="6" r:id="rId4"/>
     <sheet name="8th_cn" sheetId="7" r:id="rId5"/>
     <sheet name="9th_cn" sheetId="8" r:id="rId6"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId7"/>
-    <sheet name="カメラ画像" sheetId="9" r:id="rId8"/>
-    <sheet name="補正画像" sheetId="10" r:id="rId9"/>
-    <sheet name="Sheet1" sheetId="14" r:id="rId10"/>
-    <sheet name="走行コンセプト①" sheetId="11" r:id="rId11"/>
-    <sheet name="走行コンセプト②" sheetId="12" r:id="rId12"/>
-    <sheet name="走行コンセプト③" sheetId="13" r:id="rId13"/>
+    <sheet name="カメラ画像" sheetId="9" r:id="rId7"/>
+    <sheet name="補正画像" sheetId="10" r:id="rId8"/>
+    <sheet name="Sheet1" sheetId="14" r:id="rId9"/>
+    <sheet name="走行コンセプト①" sheetId="11" r:id="rId10"/>
+    <sheet name="走行コンセプト②" sheetId="12" r:id="rId11"/>
+    <sheet name="走行コンセプト③" sheetId="13" r:id="rId12"/>
+    <sheet name="Sheet3" sheetId="15" r:id="rId13"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -2464,16 +2464,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>965200</xdr:colOff>
-      <xdr:row>283</xdr:row>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>825500</xdr:colOff>
+      <xdr:row>284</xdr:row>
       <xdr:rowOff>203200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>33</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>316</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>889000</xdr:colOff>
+      <xdr:row>321</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2488,8 +2488,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="25349200" y="72085200"/>
-          <a:ext cx="8178800" cy="8178800"/>
+          <a:off x="24193500" y="72339200"/>
+          <a:ext cx="8191500" cy="9321800"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -2532,16 +2532,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
-      <xdr:col>30</xdr:col>
-      <xdr:colOff>762000</xdr:colOff>
-      <xdr:row>305</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>43</xdr:col>
-      <xdr:colOff>127000</xdr:colOff>
-      <xdr:row>317</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>289</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>302</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2558,7 +2558,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="31242000" y="77495400"/>
+          <a:off x="15240000" y="73558400"/>
           <a:ext cx="12573000" cy="3149600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2607,15 +2607,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>315</xdr:row>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>342</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>323</xdr:row>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>350</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2631,7 +2631,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="26492200" y="80086200"/>
+          <a:off x="28384500" y="86944200"/>
           <a:ext cx="2032000" cy="2032000"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
@@ -2662,6 +2662,10 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>1335</a:t>
+          </a:r>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
@@ -2824,15 +2828,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>337</xdr:row>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>419</xdr:row>
       <xdr:rowOff>177800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>33</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>350</xdr:row>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>889000</xdr:colOff>
+      <xdr:row>432</xdr:row>
       <xdr:rowOff>25400</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2850,7 +2854,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="17805400" y="85775800"/>
+          <a:off x="13233400" y="106603800"/>
           <a:ext cx="16103600" cy="3149600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2892,6 +2896,502 @@
             </a:rPr>
             <a:t>ライン・トレース</a:t>
           </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>442348</xdr:colOff>
+      <xdr:row>290</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>60812</xdr:colOff>
+      <xdr:row>307</xdr:row>
+      <xdr:rowOff>232800</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="40" name="正方形/長方形 39">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{13895A47-457C-4842-8A54-ABF6F08A6B05}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="31938348" y="73710800"/>
+          <a:ext cx="10794464" cy="4500000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="17000">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>R:290</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="17000">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>280</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>47</xdr:col>
+      <xdr:colOff>625490</xdr:colOff>
+      <xdr:row>362</xdr:row>
+      <xdr:rowOff>204400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="41" name="円/楕円 40">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{64AD8FE5-E1E6-3445-A8EA-BF7006DD35D2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="27495500" y="71272400"/>
+          <a:ext cx="20881990" cy="20880000"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="76200">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>448793</xdr:colOff>
+      <xdr:row>309</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>798482</xdr:colOff>
+      <xdr:row>327</xdr:row>
+      <xdr:rowOff>105800</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="42" name="正方形/長方形 41">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{390DA570-8821-9F45-B32F-C0FDE2107364}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="28896793" y="78663800"/>
+          <a:ext cx="11525689" cy="4500000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="17000">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>(920,1335)</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="17000">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>598511</xdr:colOff>
+      <xdr:row>257</xdr:row>
+      <xdr:rowOff>203200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>216975</xdr:colOff>
+      <xdr:row>275</xdr:row>
+      <xdr:rowOff>131200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="43" name="正方形/長方形 42">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3E1B2C8E-8509-DE4E-A0C7-5150508CEFFB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="25998511" y="65481200"/>
+          <a:ext cx="10794464" cy="4500000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="17000">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>(920,1625)</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="17000">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>347</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>889000</xdr:colOff>
+      <xdr:row>347</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="45" name="直線コネクタ 44">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0CD04C0F-502F-5A43-9A17-A0723144443C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="20320000" y="88138000"/>
+          <a:ext cx="18161000" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>93193</xdr:colOff>
+      <xdr:row>332</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>442882</xdr:colOff>
+      <xdr:row>347</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="46" name="正方形/長方形 45">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5F40DBC5-BE0B-EA48-9074-2952D3CE5A4C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13301193" y="84404200"/>
+          <a:ext cx="11525689" cy="3733800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="17000">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>y = 1112</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="17000">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>317500</xdr:colOff>
+      <xdr:row>334</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>127000</xdr:colOff>
+      <xdr:row>356</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="47" name="円/楕円 46">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B5F8B35E-2C93-FB4C-9C60-08A7ABBCA525}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="20700000">
+          <a:off x="24701500" y="85064600"/>
+          <a:ext cx="9969500" cy="5359400"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -5015,25 +5515,165 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>101</xdr:col>
+      <xdr:colOff>655388</xdr:colOff>
+      <xdr:row>124</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>112</xdr:col>
+      <xdr:colOff>947488</xdr:colOff>
+      <xdr:row>141</xdr:row>
+      <xdr:rowOff>182000</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="39" name="正方形/長方形 38">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4FAC6193-A981-4B4B-8085-1540A2039399}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="103271388" y="31496000"/>
+          <a:ext cx="11468100" cy="4500000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="17000">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>(2495,2630)</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="17000">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>89</xdr:col>
-      <xdr:colOff>508000</xdr:colOff>
-      <xdr:row>269</xdr:row>
+      <xdr:col>92</xdr:col>
+      <xdr:colOff>317500</xdr:colOff>
+      <xdr:row>212</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>94</xdr:col>
+      <xdr:colOff>317500</xdr:colOff>
+      <xdr:row>220</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="41" name="円/楕円 40">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5B3F3AE6-D9C5-BA4F-9B73-1F0B5FE84943}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="93789500" y="53975000"/>
+          <a:ext cx="2032000" cy="2032000"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>87</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>97</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>91</xdr:col>
+      <xdr:colOff>698500</xdr:colOff>
+      <xdr:row>114</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>97</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>301</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="35" name="円/楕円 34">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FEAAAB1A-1098-2842-98D0-F997A3D7B266}"/>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="42" name="円/楕円 41">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3F0DE4B7-FBEE-D640-ADD9-70A4B2BB1F60}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5041,8 +5681,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="90932000" y="68326000"/>
-          <a:ext cx="8191500" cy="8178800"/>
+          <a:off x="88544400" y="24663400"/>
+          <a:ext cx="4610100" cy="4292600"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -5085,23 +5725,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
-      <xdr:col>95</xdr:col>
-      <xdr:colOff>482600</xdr:colOff>
-      <xdr:row>291</xdr:row>
+      <xdr:col>91</xdr:col>
+      <xdr:colOff>254000</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>103</xdr:col>
+      <xdr:colOff>635000</xdr:colOff>
+      <xdr:row>105</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>107</xdr:col>
-      <xdr:colOff>863600</xdr:colOff>
-      <xdr:row>303</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="43" name="正方形/長方形 42">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{11CE3A9D-99D5-0C4A-8F78-CF22CD91D3AA}"/>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="46" name="正方形/長方形 45">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7A8337C5-B6BB-AF4D-839A-469BA9D87C93}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5111,7 +5751,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="97002600" y="73914000"/>
+          <a:off x="92710000" y="23520400"/>
           <a:ext cx="12573000" cy="3149600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -5160,23 +5800,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
-      <xdr:col>92</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>195</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>95</xdr:col>
-      <xdr:colOff>63500</xdr:colOff>
-      <xdr:row>259</xdr:row>
+      <xdr:col>73</xdr:col>
+      <xdr:colOff>501650</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>82</xdr:col>
+      <xdr:colOff>762000</xdr:colOff>
+      <xdr:row>91</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="44" name="正方形/長方形 43">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{14F49B49-38A2-424B-A798-E0F791A0DDAA}"/>
+        <xdr:cNvPr id="48" name="正方形/長方形 47">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{84A00FFF-6377-0842-931D-70FE2B033485}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5185,9 +5825,9 @@
         </xdr:cNvSpPr>
       </xdr:nvSpPr>
       <xdr:spPr>
-        <a:xfrm rot="16200000">
-          <a:off x="86975950" y="56178450"/>
-          <a:ext cx="16103600" cy="3111500"/>
+        <a:xfrm>
+          <a:off x="74669650" y="16973550"/>
+          <a:ext cx="9404350" cy="6140450"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5226,8 +5866,24 @@
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>ライン・トレース</a:t>
+            <a:t>ライン・</a:t>
           </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="14200">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="14200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>トレース</a:t>
+          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -5235,23 +5891,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
-      <xdr:col>95</xdr:col>
-      <xdr:colOff>736600</xdr:colOff>
-      <xdr:row>204</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>98</xdr:col>
-      <xdr:colOff>920750</xdr:colOff>
-      <xdr:row>252</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="47" name="正方形/長方形 46">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B40B6073-34BE-D149-A9A6-786DE33E88A9}"/>
+      <xdr:col>73</xdr:col>
+      <xdr:colOff>660400</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>88</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="49" name="正方形/長方形 48">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F16048A3-39C5-2C44-ADCD-DF0D34BA8FE7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5260,9 +5916,9 @@
         </xdr:cNvSpPr>
       </xdr:nvSpPr>
       <xdr:spPr>
-        <a:xfrm rot="16200000">
-          <a:off x="92776675" y="56295925"/>
-          <a:ext cx="12192000" cy="3232150"/>
+        <a:xfrm>
+          <a:off x="74828400" y="14274800"/>
+          <a:ext cx="15113000" cy="2641600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5309,7 +5965,7 @@
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>x</a:t>
+            <a:t>y</a:t>
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="14200">
@@ -5319,6 +5975,146 @@
             </a:rPr>
             <a:t>座標補正</a:t>
           </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>94</xdr:col>
+      <xdr:colOff>939800</xdr:colOff>
+      <xdr:row>298</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>106</xdr:col>
+      <xdr:colOff>279400</xdr:colOff>
+      <xdr:row>316</xdr:row>
+      <xdr:rowOff>105800</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="50" name="正方形/長方形 49">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F94CCB0F-331D-B348-BB9E-8F75B8EAD949}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="96443800" y="75869800"/>
+          <a:ext cx="11531600" cy="4500000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="17000">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>(2400,1400)</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="17000">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>90</xdr:col>
+      <xdr:colOff>723900</xdr:colOff>
+      <xdr:row>111</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>92</xdr:col>
+      <xdr:colOff>723900</xdr:colOff>
+      <xdr:row>119</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="51" name="円/楕円 50">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{781294B0-1784-3742-B8F7-A25752114626}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="92163900" y="28219400"/>
+          <a:ext cx="2032000" cy="2032000"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -9841,14 +10637,14 @@
     <xdr:from>
       <xdr:col>29</xdr:col>
       <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>142</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
+      <xdr:row>144</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>41</xdr:col>
       <xdr:colOff>789000</xdr:colOff>
-      <xdr:row>192</xdr:row>
-      <xdr:rowOff>27000</xdr:rowOff>
+      <xdr:row>193</xdr:row>
+      <xdr:rowOff>154000</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -9865,8 +10661,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="28003500" y="36195000"/>
-          <a:ext cx="11838000" cy="12600000"/>
+          <a:off x="29845000" y="36576000"/>
+          <a:ext cx="12600000" cy="12600000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -11659,6 +12455,209 @@
               <a:schemeClr val="tx1"/>
             </a:solidFill>
           </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>127000</xdr:colOff>
+      <xdr:row>95</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>83</xdr:col>
+      <xdr:colOff>439000</xdr:colOff>
+      <xdr:row>511</xdr:row>
+      <xdr:rowOff>21400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="33" name="正方形/長方形 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9D01E3EB-39D8-FF43-8AD7-1373CAF0C374}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5207000" y="24155400"/>
+          <a:ext cx="79560000" cy="105660000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>87</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>98</xdr:col>
+      <xdr:colOff>508000</xdr:colOff>
+      <xdr:row>102</xdr:row>
+      <xdr:rowOff>80400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="34" name="正方形/長方形 33">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{47FA52B9-AD03-EC4C-A5FF-3AC0347564CB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="88544400" y="21488400"/>
+          <a:ext cx="11531600" cy="4500000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="17000">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>(2210,2935)</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="17000">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>279400</xdr:colOff>
+      <xdr:row>181</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>93</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>507</xdr:row>
+      <xdr:rowOff>183800</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="35" name="正方形/長方形 34">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{962D9B03-7A04-1645-9357-6457C51750A0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5359400" y="46101000"/>
+          <a:ext cx="89509600" cy="82860800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -13767,6 +14766,151 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>312488</xdr:colOff>
+      <xdr:row>216</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>93</xdr:col>
+      <xdr:colOff>660408</xdr:colOff>
+      <xdr:row>510</xdr:row>
+      <xdr:rowOff>151000</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="34" name="正方形/長方形 33">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F97E6F55-6C69-914E-A1FB-82A3A026E0CC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5392488" y="54991000"/>
+          <a:ext cx="89755920" cy="74700000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="76200">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>96</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>205</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>107</xdr:col>
+      <xdr:colOff>508000</xdr:colOff>
+      <xdr:row>222</xdr:row>
+      <xdr:rowOff>207400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="35" name="正方形/長方形 34">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{266D9314-2220-0242-87E2-97906210C859}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="97688400" y="52095400"/>
+          <a:ext cx="11531600" cy="4500000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="17000">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>(2495,2075)</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="17000">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -16965,19 +18109,6 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F9F3098-9E40-9743-A996-E0ABF115B044}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
-  <sheetData/>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CD11F90-6172-504F-8D09-785584568889}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -16993,12 +18124,28 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4E69A08-6157-3046-A0AD-F5965CF91422}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A136" zoomScale="10" zoomScaleNormal="10" workbookViewId="0">
-      <selection activeCell="DF328" sqref="DF328"/>
+    <sheetView topLeftCell="A136" zoomScale="10" zoomScaleNormal="10" workbookViewId="0">
+      <selection activeCell="EJ329" sqref="EJ329"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB0DD1CD-4FA4-9E45-B6BB-0F24850E37CC}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView topLeftCell="A80" zoomScale="10" zoomScaleNormal="10" workbookViewId="0">
+      <selection activeCell="EL301" sqref="EL301"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -17010,18 +18157,47 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB0DD1CD-4FA4-9E45-B6BB-0F24850E37CC}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC0D6C9E-10A1-E446-929B-01BD39C51451}">
+  <dimension ref="E6:E10"/>
   <sheetViews>
-    <sheetView topLeftCell="A107" zoomScale="10" zoomScaleNormal="10" workbookViewId="0">
-      <selection activeCell="DE326" sqref="DE325:DE326"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
-  <sheetData/>
+  <sheetData>
+    <row r="6" spans="5:5">
+      <c r="E6">
+        <v>1335</v>
+      </c>
+    </row>
+    <row r="7" spans="5:5">
+      <c r="E7">
+        <v>1075</v>
+      </c>
+    </row>
+    <row r="8" spans="5:5">
+      <c r="E8">
+        <f>E6-E7</f>
+        <v>260</v>
+      </c>
+    </row>
+    <row r="9" spans="5:5">
+      <c r="E9">
+        <f>E8/2</f>
+        <v>130</v>
+      </c>
+    </row>
+    <row r="10" spans="5:5">
+      <c r="E10">
+        <f>E7+E9</f>
+        <v>1205</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -17083,8 +18259,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC0E7A75-46C7-1841-9EF0-B9AC5F961D8D}">
   <dimension ref="EI332"/>
   <sheetViews>
-    <sheetView topLeftCell="A196" zoomScale="10" zoomScaleNormal="10" workbookViewId="0">
-      <selection activeCell="CH550" sqref="CH550"/>
+    <sheetView topLeftCell="A6" zoomScale="10" zoomScaleNormal="10" workbookViewId="0">
+      <selection activeCell="DU172" sqref="DU172"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -17105,8 +18281,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2D3F457-5443-8140-A1C2-32A729A4C0D5}">
   <dimension ref="EI332"/>
   <sheetViews>
-    <sheetView topLeftCell="A123" zoomScale="10" zoomScaleNormal="10" workbookViewId="0">
-      <selection activeCell="DE318" sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A99" zoomScale="10" zoomScaleNormal="10" workbookViewId="0">
+      <selection activeCell="FQ248" sqref="FQ248"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -17124,292 +18300,6 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D521F8A-A98F-BA49-990E-666A6E47EA47}">
-  <dimension ref="A8:M41"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M9" sqref="M9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
-  <sheetData>
-    <row r="8" spans="1:13">
-      <c r="L8">
-        <v>950</v>
-      </c>
-      <c r="M8">
-        <f>L8/2</f>
-        <v>475</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
-      <c r="C9">
-        <v>1580</v>
-      </c>
-      <c r="D9">
-        <v>165</v>
-      </c>
-      <c r="E9">
-        <f>C9+D9</f>
-        <v>1745</v>
-      </c>
-      <c r="H9">
-        <v>475</v>
-      </c>
-      <c r="I9">
-        <f>C9-H9</f>
-        <v>1105</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
-      <c r="C10">
-        <v>1140</v>
-      </c>
-      <c r="E10">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
-      <c r="A11">
-        <v>1580</v>
-      </c>
-      <c r="C11">
-        <f>C9-C10</f>
-        <v>440</v>
-      </c>
-      <c r="E11">
-        <f>E10+C11</f>
-        <v>605</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
-      <c r="A12">
-        <v>1140</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
-      <c r="A13">
-        <f>A11-A12</f>
-        <v>440</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
-      <c r="I14">
-        <v>1150</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
-      <c r="C15">
-        <v>950</v>
-      </c>
-      <c r="D15">
-        <v>2</v>
-      </c>
-      <c r="E15">
-        <f>C15/D15</f>
-        <v>475</v>
-      </c>
-      <c r="I15">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
-      <c r="I16">
-        <f>I14+I15</f>
-        <v>1625</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
-      <c r="G18">
-        <v>1745</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
-      <c r="G19">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
-      <c r="G20">
-        <f>G18+G19</f>
-        <v>2075</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
-      <c r="C25">
-        <v>1625</v>
-      </c>
-      <c r="D25">
-        <v>290</v>
-      </c>
-      <c r="E25">
-        <f>C25-D25</f>
-        <v>1335</v>
-      </c>
-      <c r="H25">
-        <v>1745</v>
-      </c>
-      <c r="I25">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12">
-      <c r="H26">
-        <v>375</v>
-      </c>
-      <c r="I26">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12">
-      <c r="H27">
-        <f>H25+H26</f>
-        <v>2120</v>
-      </c>
-      <c r="I27">
-        <f>I25+I26</f>
-        <v>890</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12">
-      <c r="H29">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12">
-      <c r="A30">
-        <v>1625</v>
-      </c>
-      <c r="C30">
-        <v>500</v>
-      </c>
-      <c r="H30">
-        <v>375</v>
-      </c>
-      <c r="I30">
-        <v>740</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12">
-      <c r="A31">
-        <v>475</v>
-      </c>
-      <c r="C31">
-        <v>370</v>
-      </c>
-      <c r="F31">
-        <v>850</v>
-      </c>
-      <c r="H31">
-        <f>H29+H30</f>
-        <v>540</v>
-      </c>
-      <c r="I31">
-        <f>I30/2</f>
-        <v>370</v>
-      </c>
-      <c r="K31">
-        <v>585</v>
-      </c>
-      <c r="L31">
-        <f>K31+I31</f>
-        <v>955</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12">
-      <c r="A32">
-        <f>A30-A31</f>
-        <v>1150</v>
-      </c>
-      <c r="C32">
-        <f>C30-C31</f>
-        <v>130</v>
-      </c>
-      <c r="F32">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
-      <c r="C33">
-        <v>370</v>
-      </c>
-      <c r="F33">
-        <f>F31/F32</f>
-        <v>425</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
-      <c r="C34">
-        <f>C32+C33</f>
-        <v>500</v>
-      </c>
-      <c r="H34">
-        <v>2120</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
-      <c r="F35">
-        <v>1625</v>
-      </c>
-      <c r="H35">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
-      <c r="A36">
-        <v>750</v>
-      </c>
-      <c r="F36">
-        <f>F33+F35</f>
-        <v>2050</v>
-      </c>
-      <c r="H36">
-        <f>H34+H35</f>
-        <v>2495</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
-      <c r="A37">
-        <f>A36/2</f>
-        <v>375</v>
-      </c>
-      <c r="C37">
-        <v>2050</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
-      <c r="C38">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
-      <c r="A39">
-        <v>2050</v>
-      </c>
-      <c r="C39">
-        <f>C37-C38</f>
-        <v>1700</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
-      <c r="A40">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
-      <c r="A41">
-        <f>A39-A40</f>
-        <v>1700</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A471FDE8-B665-8644-A301-27AF1529F2A3}">
   <dimension ref="J17"/>
   <sheetViews>
@@ -17429,7 +18319,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECF1118A-BD67-BB41-B9F3-FB6B0BE6E76F}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -17443,4 +18333,17 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F9F3098-9E40-9743-A996-E0ABF115B044}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Documents/Lコース座標.xlsx
+++ b/Documents/Lコース座標.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/KaoruOta/ET_Robocon/ev3rt-beta7-release/hrp2/sdk/workspace/hiro_jiren/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{3758D16D-B1A8-9144-B59F-649E7E02C97C}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{8D893AED-2C4C-924D-9687-487A9416336F}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3300" yWindow="460" windowWidth="35100" windowHeight="21140" activeTab="5" xr2:uid="{6DB03CC7-F739-074A-9B67-9A070117031E}"/>
+    <workbookView xWindow="21060" yWindow="460" windowWidth="16380" windowHeight="21140" activeTab="12" xr2:uid="{6DB03CC7-F739-074A-9B67-9A070117031E}"/>
   </bookViews>
   <sheets>
     <sheet name="Start-1st_CR" sheetId="1" r:id="rId1"/>
@@ -25,8 +25,14 @@
     <sheet name="走行コンセプト①" sheetId="11" r:id="rId10"/>
     <sheet name="走行コンセプト②" sheetId="12" r:id="rId11"/>
     <sheet name="走行コンセプト③" sheetId="13" r:id="rId12"/>
-    <sheet name="Sheet3" sheetId="15" r:id="rId13"/>
+    <sheet name="ブロックビンコ" sheetId="15" r:id="rId13"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">ブロックビンコ!$P$2</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">ブロックビンコ!$P$3:$P$32</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">ブロックビンコ!$Q$2</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">ブロックビンコ!$Q$3:$Q$32</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -37,9 +43,23 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="5">
   <si>
     <t>ß</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>x</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>y</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -47,6 +67,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="0_ "/>
+  </numFmts>
   <fonts count="2">
     <font>
       <sz val="12"/>
@@ -72,7 +95,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -95,17 +118,127 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -123,6 +256,997 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>ブロックビンコ!$Q$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>y</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>ブロックビンコ!$P$3:$P$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1050</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1400</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>525</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>875</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1225</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1050</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1400</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>525</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1225</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1050</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1400</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>525</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>875</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1225</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1050</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1400</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>ブロックビンコ!$Q$3:$Q$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>1400</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1400</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1400</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1400</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1225</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1225</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1225</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1050</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1050</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1050</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1050</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>875</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>875</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>525</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>525</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>525</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>350</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5533-3647-8A15-EB4BF32DBB78}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1424714687"/>
+        <c:axId val="1425471199"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1424714687"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1425471199"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1425471199"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1424714687"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5596,13 +6720,13 @@
     <xdr:from>
       <xdr:col>92</xdr:col>
       <xdr:colOff>317500</xdr:colOff>
-      <xdr:row>212</xdr:row>
+      <xdr:row>131</xdr:row>
       <xdr:rowOff>127000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>94</xdr:col>
       <xdr:colOff>317500</xdr:colOff>
-      <xdr:row>220</xdr:row>
+      <xdr:row>139</xdr:row>
       <xdr:rowOff>127000</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5618,7 +6742,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="93789500" y="53975000"/>
+          <a:off x="93789500" y="33401000"/>
           <a:ext cx="2032000" cy="2032000"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
@@ -5657,16 +6781,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>83</xdr:col>
+      <xdr:colOff>279400</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
       <xdr:col>87</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>97</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>91</xdr:col>
-      <xdr:colOff>698500</xdr:colOff>
-      <xdr:row>114</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>825500</xdr:colOff>
+      <xdr:row>103</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -5681,7 +6805,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="88544400" y="24663400"/>
+          <a:off x="84607400" y="21996400"/>
           <a:ext cx="4610100" cy="4292600"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
@@ -6059,15 +7183,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>90</xdr:col>
-      <xdr:colOff>723900</xdr:colOff>
-      <xdr:row>111</xdr:row>
+      <xdr:col>81</xdr:col>
+      <xdr:colOff>88900</xdr:colOff>
+      <xdr:row>89</xdr:row>
       <xdr:rowOff>25400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>92</xdr:col>
-      <xdr:colOff>723900</xdr:colOff>
-      <xdr:row>119</xdr:row>
+      <xdr:col>83</xdr:col>
+      <xdr:colOff>88900</xdr:colOff>
+      <xdr:row>97</xdr:row>
       <xdr:rowOff>25400</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6083,7 +7207,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="92163900" y="28219400"/>
+          <a:off x="82384900" y="22631400"/>
           <a:ext cx="2032000" cy="2032000"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
@@ -6118,6 +7242,124 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>97</xdr:col>
+      <xdr:colOff>299788</xdr:colOff>
+      <xdr:row>209</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>108</xdr:col>
+      <xdr:colOff>591888</xdr:colOff>
+      <xdr:row>226</xdr:row>
+      <xdr:rowOff>207400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="52" name="正方形/長方形 51">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AFAF1629-2914-0F48-B9E4-B2571A795C80}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="98851788" y="53111400"/>
+          <a:ext cx="11468100" cy="4500000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="17000">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>(2495,2075)</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="17000">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing12.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>184150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>876300</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="グラフ 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B95F73ED-2A03-2740-8BC7-F25252F2C538}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -18144,8 +19386,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB0DD1CD-4FA4-9E45-B6BB-0F24850E37CC}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A80" zoomScale="10" zoomScaleNormal="10" workbookViewId="0">
-      <selection activeCell="EL301" sqref="EL301"/>
+    <sheetView topLeftCell="A79" zoomScale="10" zoomScaleNormal="10" workbookViewId="0">
+      <selection activeCell="EP231" sqref="EP231"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -18158,46 +19400,861 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC0D6C9E-10A1-E446-929B-01BD39C51451}">
-  <dimension ref="E6:E10"/>
+  <dimension ref="C1:Q32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" topLeftCell="O16" zoomScale="186" zoomScaleNormal="186" workbookViewId="0">
+      <selection activeCell="R19" sqref="R19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
   <sheetData>
-    <row r="6" spans="5:5">
+    <row r="1" spans="3:17" ht="21" thickBot="1"/>
+    <row r="2" spans="3:17">
+      <c r="D2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" t="s">
+        <v>4</v>
+      </c>
+      <c r="L2" t="s">
+        <v>1</v>
+      </c>
+      <c r="M2" t="s">
+        <v>3</v>
+      </c>
+      <c r="O2" s="3"/>
+      <c r="P2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q2" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="3:17">
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <f>C3*350</f>
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>1050</v>
+      </c>
+      <c r="I3">
+        <v>350</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>1050</v>
+      </c>
+      <c r="O3" s="6">
+        <v>0</v>
+      </c>
+      <c r="P3" s="7">
+        <f>L3+350</f>
+        <v>350</v>
+      </c>
+      <c r="Q3" s="8">
+        <f>M3+350</f>
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="4" spans="3:17">
+      <c r="C4">
+        <f>C3+1</f>
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <f t="shared" ref="D4:D6" si="0">C4*350</f>
+        <v>350</v>
+      </c>
+      <c r="E4">
+        <v>1050</v>
+      </c>
+      <c r="I4">
+        <v>2</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4">
+        <v>350</v>
+      </c>
+      <c r="M4">
+        <v>1050</v>
+      </c>
+      <c r="O4" s="6">
+        <v>1</v>
+      </c>
+      <c r="P4" s="7">
+        <f t="shared" ref="P4:P6" si="1">L4+350</f>
+        <v>700</v>
+      </c>
+      <c r="Q4" s="8">
+        <f t="shared" ref="Q4:Q6" si="2">M4+350</f>
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="5" spans="3:17">
+      <c r="C5">
+        <f t="shared" ref="C5:C6" si="3">C4+1</f>
+        <v>2</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="0"/>
+        <v>700</v>
+      </c>
+      <c r="E5">
+        <v>1050</v>
+      </c>
+      <c r="I5">
+        <f>I3/I4</f>
+        <v>175</v>
+      </c>
+      <c r="K5">
+        <v>2</v>
+      </c>
+      <c r="L5">
+        <v>700</v>
+      </c>
+      <c r="M5">
+        <v>1050</v>
+      </c>
+      <c r="O5" s="6">
+        <v>2</v>
+      </c>
+      <c r="P5" s="7">
+        <f t="shared" si="1"/>
+        <v>1050</v>
+      </c>
+      <c r="Q5" s="8">
+        <f t="shared" si="2"/>
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="6" spans="3:17">
+      <c r="C6">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="0"/>
+        <v>1050</v>
+      </c>
       <c r="E6">
-        <v>1335</v>
+        <v>1050</v>
+      </c>
+      <c r="I6">
+        <f>SQRT(2)</f>
+        <v>1.4142135623730951</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>1050</v>
+      </c>
+      <c r="M6">
+        <v>1050</v>
+      </c>
+      <c r="O6" s="6">
+        <v>3</v>
+      </c>
+      <c r="P6" s="7">
+        <f t="shared" si="1"/>
+        <v>1400</v>
+      </c>
+      <c r="Q6" s="8">
+        <f t="shared" si="2"/>
+        <v>1400</v>
       </c>
     </row>
-    <row r="7" spans="5:5">
-      <c r="E7">
-        <v>1075</v>
-      </c>
+    <row r="7" spans="3:17" ht="23" customHeight="1">
+      <c r="I7">
+        <f>I5*I6</f>
+        <v>247.48737341529164</v>
+      </c>
+      <c r="O7" s="6"/>
+      <c r="P7" s="7"/>
+      <c r="Q7" s="8"/>
     </row>
-    <row r="8" spans="5:5">
-      <c r="E8">
-        <f>E6-E7</f>
-        <v>260</v>
+    <row r="8" spans="3:17">
+      <c r="C8">
+        <v>4</v>
+      </c>
+      <c r="D8" s="2">
+        <v>175</v>
+      </c>
+      <c r="E8" s="2">
+        <f>E17+350</f>
+        <v>875</v>
+      </c>
+      <c r="K8">
+        <v>4</v>
+      </c>
+      <c r="L8">
+        <v>175</v>
+      </c>
+      <c r="M8">
+        <v>875</v>
+      </c>
+      <c r="O8" s="6">
+        <v>4</v>
+      </c>
+      <c r="P8" s="7">
+        <f t="shared" ref="P8:P10" si="4">L8+350</f>
+        <v>525</v>
+      </c>
+      <c r="Q8" s="8">
+        <f t="shared" ref="Q8:Q10" si="5">M8+350</f>
+        <v>1225</v>
       </c>
     </row>
-    <row r="9" spans="5:5">
+    <row r="9" spans="3:17">
+      <c r="C9">
+        <v>5</v>
+      </c>
+      <c r="D9" s="2">
+        <v>525</v>
+      </c>
       <c r="E9">
-        <f>E8/2</f>
-        <v>130</v>
+        <v>875</v>
+      </c>
+      <c r="K9">
+        <v>5</v>
+      </c>
+      <c r="L9">
+        <v>525</v>
+      </c>
+      <c r="M9">
+        <v>875</v>
+      </c>
+      <c r="O9" s="6">
+        <v>5</v>
+      </c>
+      <c r="P9" s="7">
+        <f t="shared" si="4"/>
+        <v>875</v>
+      </c>
+      <c r="Q9" s="8">
+        <f t="shared" si="5"/>
+        <v>1225</v>
       </c>
     </row>
-    <row r="10" spans="5:5">
+    <row r="10" spans="3:17">
+      <c r="C10">
+        <v>6</v>
+      </c>
+      <c r="D10" s="2">
+        <v>875</v>
+      </c>
       <c r="E10">
-        <f>E7+E9</f>
-        <v>1205</v>
+        <v>875</v>
+      </c>
+      <c r="K10">
+        <v>6</v>
+      </c>
+      <c r="L10">
+        <v>875</v>
+      </c>
+      <c r="M10">
+        <v>875</v>
+      </c>
+      <c r="O10" s="6">
+        <v>6</v>
+      </c>
+      <c r="P10" s="7">
+        <f t="shared" si="4"/>
+        <v>1225</v>
+      </c>
+      <c r="Q10" s="8">
+        <f t="shared" si="5"/>
+        <v>1225</v>
+      </c>
+    </row>
+    <row r="11" spans="3:17">
+      <c r="O11" s="6"/>
+      <c r="P11" s="7"/>
+      <c r="Q11" s="8"/>
+    </row>
+    <row r="12" spans="3:17">
+      <c r="C12">
+        <f>C10+1</f>
+        <v>7</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>700</v>
+      </c>
+      <c r="K12">
+        <v>7</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>700</v>
+      </c>
+      <c r="O12" s="6">
+        <v>7</v>
+      </c>
+      <c r="P12" s="7">
+        <f t="shared" ref="P12:P15" si="6">L12+350</f>
+        <v>350</v>
+      </c>
+      <c r="Q12" s="8">
+        <f t="shared" ref="Q12:Q15" si="7">M12+350</f>
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="13" spans="3:17">
+      <c r="C13">
+        <f>C12+1</f>
+        <v>8</v>
+      </c>
+      <c r="D13">
+        <v>350</v>
+      </c>
+      <c r="E13">
+        <v>700</v>
+      </c>
+      <c r="K13">
+        <v>8</v>
+      </c>
+      <c r="L13">
+        <v>350</v>
+      </c>
+      <c r="M13">
+        <v>700</v>
+      </c>
+      <c r="O13" s="6">
+        <v>8</v>
+      </c>
+      <c r="P13" s="7">
+        <f t="shared" si="6"/>
+        <v>700</v>
+      </c>
+      <c r="Q13" s="8">
+        <f t="shared" si="7"/>
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="14" spans="3:17">
+      <c r="C14">
+        <f t="shared" ref="C14:C15" si="8">C13+1</f>
+        <v>9</v>
+      </c>
+      <c r="D14">
+        <v>700</v>
+      </c>
+      <c r="E14">
+        <v>700</v>
+      </c>
+      <c r="K14">
+        <v>9</v>
+      </c>
+      <c r="L14">
+        <v>700</v>
+      </c>
+      <c r="M14">
+        <v>700</v>
+      </c>
+      <c r="O14" s="6">
+        <v>9</v>
+      </c>
+      <c r="P14" s="7">
+        <f t="shared" si="6"/>
+        <v>1050</v>
+      </c>
+      <c r="Q14" s="8">
+        <f t="shared" si="7"/>
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="15" spans="3:17">
+      <c r="C15">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="D15">
+        <v>1050</v>
+      </c>
+      <c r="E15">
+        <v>700</v>
+      </c>
+      <c r="K15">
+        <v>10</v>
+      </c>
+      <c r="L15">
+        <v>1050</v>
+      </c>
+      <c r="M15">
+        <v>700</v>
+      </c>
+      <c r="O15" s="6">
+        <v>10</v>
+      </c>
+      <c r="P15" s="7">
+        <f t="shared" si="6"/>
+        <v>1400</v>
+      </c>
+      <c r="Q15" s="8">
+        <f t="shared" si="7"/>
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="16" spans="3:17">
+      <c r="O16" s="6"/>
+      <c r="P16" s="7"/>
+      <c r="Q16" s="8"/>
+    </row>
+    <row r="17" spans="3:17">
+      <c r="C17">
+        <f>C15+1</f>
+        <v>11</v>
+      </c>
+      <c r="D17" s="2">
+        <v>175</v>
+      </c>
+      <c r="E17" s="2">
+        <f>D17+350</f>
+        <v>525</v>
+      </c>
+      <c r="K17">
+        <v>11</v>
+      </c>
+      <c r="L17">
+        <v>175</v>
+      </c>
+      <c r="M17">
+        <v>525</v>
+      </c>
+      <c r="O17" s="6">
+        <v>11</v>
+      </c>
+      <c r="P17" s="7">
+        <f t="shared" ref="P17:P18" si="9">L17+350</f>
+        <v>525</v>
+      </c>
+      <c r="Q17" s="8">
+        <f t="shared" ref="Q17:Q18" si="10">M17+350</f>
+        <v>875</v>
+      </c>
+    </row>
+    <row r="18" spans="3:17">
+      <c r="C18">
+        <f>C17+1</f>
+        <v>12</v>
+      </c>
+      <c r="D18" s="2">
+        <v>875</v>
+      </c>
+      <c r="E18" s="2">
+        <v>525</v>
+      </c>
+      <c r="K18">
+        <v>12</v>
+      </c>
+      <c r="L18">
+        <v>875</v>
+      </c>
+      <c r="M18">
+        <v>525</v>
+      </c>
+      <c r="O18" s="6">
+        <v>12</v>
+      </c>
+      <c r="P18" s="7">
+        <f t="shared" si="9"/>
+        <v>1225</v>
+      </c>
+      <c r="Q18" s="8">
+        <f t="shared" si="10"/>
+        <v>875</v>
+      </c>
+    </row>
+    <row r="19" spans="3:17">
+      <c r="O19" s="6"/>
+      <c r="P19" s="7"/>
+      <c r="Q19" s="8"/>
+    </row>
+    <row r="20" spans="3:17">
+      <c r="C20">
+        <f>C18+1</f>
+        <v>13</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>350</v>
+      </c>
+      <c r="K20">
+        <v>13</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>350</v>
+      </c>
+      <c r="O20" s="6">
+        <v>13</v>
+      </c>
+      <c r="P20" s="7">
+        <f t="shared" ref="P20:P23" si="11">L20+350</f>
+        <v>350</v>
+      </c>
+      <c r="Q20" s="8">
+        <f t="shared" ref="Q20:Q23" si="12">M20+350</f>
+        <v>700</v>
+      </c>
+    </row>
+    <row r="21" spans="3:17">
+      <c r="C21">
+        <f>C20+1</f>
+        <v>14</v>
+      </c>
+      <c r="D21">
+        <v>350</v>
+      </c>
+      <c r="E21">
+        <v>350</v>
+      </c>
+      <c r="K21">
+        <v>14</v>
+      </c>
+      <c r="L21">
+        <v>350</v>
+      </c>
+      <c r="M21">
+        <v>350</v>
+      </c>
+      <c r="O21" s="6">
+        <v>14</v>
+      </c>
+      <c r="P21" s="7">
+        <f t="shared" si="11"/>
+        <v>700</v>
+      </c>
+      <c r="Q21" s="8">
+        <f t="shared" si="12"/>
+        <v>700</v>
+      </c>
+    </row>
+    <row r="22" spans="3:17">
+      <c r="C22">
+        <f t="shared" ref="C22:C23" si="13">C21+1</f>
+        <v>15</v>
+      </c>
+      <c r="D22">
+        <v>700</v>
+      </c>
+      <c r="E22">
+        <v>350</v>
+      </c>
+      <c r="K22">
+        <v>15</v>
+      </c>
+      <c r="L22">
+        <v>700</v>
+      </c>
+      <c r="M22">
+        <v>350</v>
+      </c>
+      <c r="O22" s="6">
+        <v>15</v>
+      </c>
+      <c r="P22" s="7">
+        <f t="shared" si="11"/>
+        <v>1050</v>
+      </c>
+      <c r="Q22" s="8">
+        <f t="shared" si="12"/>
+        <v>700</v>
+      </c>
+    </row>
+    <row r="23" spans="3:17">
+      <c r="C23">
+        <f t="shared" si="13"/>
+        <v>16</v>
+      </c>
+      <c r="D23">
+        <v>1050</v>
+      </c>
+      <c r="E23">
+        <v>350</v>
+      </c>
+      <c r="K23">
+        <v>16</v>
+      </c>
+      <c r="L23">
+        <v>1050</v>
+      </c>
+      <c r="M23">
+        <v>350</v>
+      </c>
+      <c r="O23" s="6">
+        <v>16</v>
+      </c>
+      <c r="P23" s="7">
+        <f t="shared" si="11"/>
+        <v>1400</v>
+      </c>
+      <c r="Q23" s="8">
+        <f t="shared" si="12"/>
+        <v>700</v>
+      </c>
+    </row>
+    <row r="24" spans="3:17">
+      <c r="O24" s="6"/>
+      <c r="P24" s="7"/>
+      <c r="Q24" s="8"/>
+    </row>
+    <row r="25" spans="3:17">
+      <c r="C25">
+        <f>C23+1</f>
+        <v>17</v>
+      </c>
+      <c r="D25" s="2">
+        <v>175</v>
+      </c>
+      <c r="E25" s="2">
+        <v>175</v>
+      </c>
+      <c r="K25">
+        <v>17</v>
+      </c>
+      <c r="L25">
+        <v>175</v>
+      </c>
+      <c r="M25">
+        <v>175</v>
+      </c>
+      <c r="O25" s="6">
+        <v>17</v>
+      </c>
+      <c r="P25" s="7">
+        <f t="shared" ref="P25:P27" si="14">L25+350</f>
+        <v>525</v>
+      </c>
+      <c r="Q25" s="8">
+        <f t="shared" ref="Q25:Q27" si="15">M25+350</f>
+        <v>525</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17">
+      <c r="C26">
+        <f>C25+1</f>
+        <v>18</v>
+      </c>
+      <c r="D26" s="2">
+        <f>D25+350</f>
+        <v>525</v>
+      </c>
+      <c r="E26" s="2">
+        <v>175</v>
+      </c>
+      <c r="K26">
+        <v>18</v>
+      </c>
+      <c r="L26">
+        <v>525</v>
+      </c>
+      <c r="M26">
+        <v>175</v>
+      </c>
+      <c r="O26" s="6">
+        <v>18</v>
+      </c>
+      <c r="P26" s="7">
+        <f t="shared" si="14"/>
+        <v>875</v>
+      </c>
+      <c r="Q26" s="8">
+        <f t="shared" si="15"/>
+        <v>525</v>
+      </c>
+    </row>
+    <row r="27" spans="3:17">
+      <c r="C27">
+        <f>C26+1</f>
+        <v>19</v>
+      </c>
+      <c r="D27" s="2">
+        <f>D26+350</f>
+        <v>875</v>
+      </c>
+      <c r="E27" s="2">
+        <v>175</v>
+      </c>
+      <c r="K27">
+        <v>19</v>
+      </c>
+      <c r="L27">
+        <v>875</v>
+      </c>
+      <c r="M27">
+        <v>175</v>
+      </c>
+      <c r="O27" s="6">
+        <v>19</v>
+      </c>
+      <c r="P27" s="7">
+        <f t="shared" si="14"/>
+        <v>1225</v>
+      </c>
+      <c r="Q27" s="8">
+        <f t="shared" si="15"/>
+        <v>525</v>
+      </c>
+    </row>
+    <row r="28" spans="3:17">
+      <c r="O28" s="6"/>
+      <c r="P28" s="7"/>
+      <c r="Q28" s="8"/>
+    </row>
+    <row r="29" spans="3:17">
+      <c r="C29">
+        <f>C27+1</f>
+        <v>20</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="K29">
+        <v>20</v>
+      </c>
+      <c r="L29">
+        <v>0</v>
+      </c>
+      <c r="M29">
+        <v>0</v>
+      </c>
+      <c r="O29" s="6">
+        <v>20</v>
+      </c>
+      <c r="P29" s="7">
+        <f t="shared" ref="P29:P32" si="16">L29+350</f>
+        <v>350</v>
+      </c>
+      <c r="Q29" s="8">
+        <f t="shared" ref="Q29:Q32" si="17">M29+350</f>
+        <v>350</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17">
+      <c r="C30">
+        <f>C29+1</f>
+        <v>21</v>
+      </c>
+      <c r="D30">
+        <v>350</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="K30">
+        <v>21</v>
+      </c>
+      <c r="L30">
+        <v>350</v>
+      </c>
+      <c r="M30">
+        <v>0</v>
+      </c>
+      <c r="O30" s="6">
+        <v>21</v>
+      </c>
+      <c r="P30" s="7">
+        <f t="shared" si="16"/>
+        <v>700</v>
+      </c>
+      <c r="Q30" s="8">
+        <f t="shared" si="17"/>
+        <v>350</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17">
+      <c r="C31">
+        <f t="shared" ref="C31:C32" si="18">C30+1</f>
+        <v>22</v>
+      </c>
+      <c r="D31">
+        <v>700</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="K31">
+        <v>22</v>
+      </c>
+      <c r="L31">
+        <v>700</v>
+      </c>
+      <c r="M31">
+        <v>0</v>
+      </c>
+      <c r="O31" s="6">
+        <v>22</v>
+      </c>
+      <c r="P31" s="7">
+        <f t="shared" si="16"/>
+        <v>1050</v>
+      </c>
+      <c r="Q31" s="8">
+        <f t="shared" si="17"/>
+        <v>350</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" ht="21" thickBot="1">
+      <c r="C32">
+        <f t="shared" si="18"/>
+        <v>23</v>
+      </c>
+      <c r="D32">
+        <v>1050</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="K32">
+        <v>23</v>
+      </c>
+      <c r="L32">
+        <v>1050</v>
+      </c>
+      <c r="M32">
+        <v>0</v>
+      </c>
+      <c r="O32" s="9">
+        <v>23</v>
+      </c>
+      <c r="P32" s="10">
+        <f t="shared" si="16"/>
+        <v>1400</v>
+      </c>
+      <c r="Q32" s="11">
+        <f t="shared" si="17"/>
+        <v>350</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -18281,7 +20338,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2D3F457-5443-8140-A1C2-32A729A4C0D5}">
   <dimension ref="EI332"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A99" zoomScale="10" zoomScaleNormal="10" workbookViewId="0">
+    <sheetView topLeftCell="A99" zoomScale="10" zoomScaleNormal="10" workbookViewId="0">
       <selection activeCell="FQ248" sqref="FQ248"/>
     </sheetView>
   </sheetViews>

--- a/Documents/Lコース座標.xlsx
+++ b/Documents/Lコース座標.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/KaoruOta/ET_Robocon/ev3rt-beta7-release/hrp2/sdk/workspace/hiro_jiren/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{22EA2E65-A25D-174F-AD2F-125A980AEE40}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{8D893AED-2C4C-924D-9687-487A9416336F}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="60" yWindow="460" windowWidth="25180" windowHeight="21140" firstSheet="4" activeTab="11" xr2:uid="{6DB03CC7-F739-074A-9B67-9A070117031E}"/>
+    <workbookView xWindow="21060" yWindow="460" windowWidth="16380" windowHeight="21140" activeTab="12" xr2:uid="{6DB03CC7-F739-074A-9B67-9A070117031E}"/>
   </bookViews>
   <sheets>
     <sheet name="Start-1st_CR" sheetId="1" r:id="rId1"/>
@@ -19,13 +19,20 @@
     <sheet name="4th_cn" sheetId="6" r:id="rId4"/>
     <sheet name="8th_cn" sheetId="7" r:id="rId5"/>
     <sheet name="9th_cn" sheetId="8" r:id="rId6"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId7"/>
-    <sheet name="カメラ画像" sheetId="9" r:id="rId8"/>
-    <sheet name="補正画像" sheetId="10" r:id="rId9"/>
+    <sheet name="カメラ画像" sheetId="9" r:id="rId7"/>
+    <sheet name="補正画像" sheetId="10" r:id="rId8"/>
+    <sheet name="Sheet1" sheetId="14" r:id="rId9"/>
     <sheet name="走行コンセプト①" sheetId="11" r:id="rId10"/>
     <sheet name="走行コンセプト②" sheetId="12" r:id="rId11"/>
     <sheet name="走行コンセプト③" sheetId="13" r:id="rId12"/>
+    <sheet name="ブロックビンコ" sheetId="15" r:id="rId13"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">ブロックビンコ!$P$2</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">ブロックビンコ!$P$3:$P$32</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">ブロックビンコ!$Q$2</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">ブロックビンコ!$Q$3:$Q$32</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -36,9 +43,23 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="5">
   <si>
     <t>ß</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>x</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>y</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -46,6 +67,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="0_ "/>
+  </numFmts>
   <fonts count="2">
     <font>
       <sz val="12"/>
@@ -71,7 +95,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -94,17 +118,127 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -122,6 +256,997 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>ブロックビンコ!$Q$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>y</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>ブロックビンコ!$P$3:$P$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1050</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1400</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>525</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>875</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1225</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1050</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1400</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>525</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1225</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1050</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1400</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>525</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>875</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1225</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1050</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1400</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>ブロックビンコ!$Q$3:$Q$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>1400</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1400</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1400</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1400</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1225</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1225</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1225</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1050</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1050</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1050</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1050</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>875</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>875</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>525</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>525</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>525</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>350</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5533-3647-8A15-EB4BF32DBB78}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1424714687"/>
+        <c:axId val="1425471199"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1424714687"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1425471199"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1425471199"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1424714687"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2463,16 +3588,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>965200</xdr:colOff>
-      <xdr:row>283</xdr:row>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>825500</xdr:colOff>
+      <xdr:row>284</xdr:row>
       <xdr:rowOff>203200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>33</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>316</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>889000</xdr:colOff>
+      <xdr:row>321</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2487,8 +3612,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="25349200" y="72085200"/>
-          <a:ext cx="8178800" cy="8178800"/>
+          <a:off x="24193500" y="72339200"/>
+          <a:ext cx="8191500" cy="9321800"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -2531,16 +3656,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
-      <xdr:col>30</xdr:col>
-      <xdr:colOff>762000</xdr:colOff>
-      <xdr:row>305</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>43</xdr:col>
-      <xdr:colOff>127000</xdr:colOff>
-      <xdr:row>317</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>289</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>302</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2557,7 +3682,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="31242000" y="77495400"/>
+          <a:off x="15240000" y="73558400"/>
           <a:ext cx="12573000" cy="3149600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2606,15 +3731,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>315</xdr:row>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>342</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>323</xdr:row>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>350</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2630,7 +3755,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="26492200" y="80086200"/>
+          <a:off x="28384500" y="86944200"/>
           <a:ext cx="2032000" cy="2032000"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
@@ -2661,6 +3786,10 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>1335</a:t>
+          </a:r>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
@@ -2823,15 +3952,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>337</xdr:row>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>419</xdr:row>
       <xdr:rowOff>177800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>33</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>350</xdr:row>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>889000</xdr:colOff>
+      <xdr:row>432</xdr:row>
       <xdr:rowOff>25400</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2849,7 +3978,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="17805400" y="85775800"/>
+          <a:off x="13233400" y="106603800"/>
           <a:ext cx="16103600" cy="3149600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2891,6 +4020,502 @@
             </a:rPr>
             <a:t>ライン・トレース</a:t>
           </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>442348</xdr:colOff>
+      <xdr:row>290</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>60812</xdr:colOff>
+      <xdr:row>307</xdr:row>
+      <xdr:rowOff>232800</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="40" name="正方形/長方形 39">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{13895A47-457C-4842-8A54-ABF6F08A6B05}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="31938348" y="73710800"/>
+          <a:ext cx="10794464" cy="4500000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="17000">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>R:290</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="17000">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>280</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>47</xdr:col>
+      <xdr:colOff>625490</xdr:colOff>
+      <xdr:row>362</xdr:row>
+      <xdr:rowOff>204400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="41" name="円/楕円 40">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{64AD8FE5-E1E6-3445-A8EA-BF7006DD35D2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="27495500" y="71272400"/>
+          <a:ext cx="20881990" cy="20880000"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="76200">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>448793</xdr:colOff>
+      <xdr:row>309</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>798482</xdr:colOff>
+      <xdr:row>327</xdr:row>
+      <xdr:rowOff>105800</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="42" name="正方形/長方形 41">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{390DA570-8821-9F45-B32F-C0FDE2107364}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="28896793" y="78663800"/>
+          <a:ext cx="11525689" cy="4500000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="17000">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>(920,1335)</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="17000">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>598511</xdr:colOff>
+      <xdr:row>257</xdr:row>
+      <xdr:rowOff>203200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>216975</xdr:colOff>
+      <xdr:row>275</xdr:row>
+      <xdr:rowOff>131200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="43" name="正方形/長方形 42">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3E1B2C8E-8509-DE4E-A0C7-5150508CEFFB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="25998511" y="65481200"/>
+          <a:ext cx="10794464" cy="4500000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="17000">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>(920,1625)</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="17000">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>347</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>889000</xdr:colOff>
+      <xdr:row>347</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="45" name="直線コネクタ 44">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0CD04C0F-502F-5A43-9A17-A0723144443C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="20320000" y="88138000"/>
+          <a:ext cx="18161000" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>93193</xdr:colOff>
+      <xdr:row>332</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>442882</xdr:colOff>
+      <xdr:row>347</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="46" name="正方形/長方形 45">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5F40DBC5-BE0B-EA48-9074-2952D3CE5A4C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13301193" y="84404200"/>
+          <a:ext cx="11525689" cy="3733800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="17000">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>y = 1112</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="17000">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>317500</xdr:colOff>
+      <xdr:row>334</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>127000</xdr:colOff>
+      <xdr:row>356</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="47" name="円/楕円 46">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B5F8B35E-2C93-FB4C-9C60-08A7ABBCA525}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="20700000">
+          <a:off x="24701500" y="85064600"/>
+          <a:ext cx="9969500" cy="5359400"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -5014,25 +6639,102 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>101</xdr:col>
+      <xdr:colOff>655388</xdr:colOff>
+      <xdr:row>124</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>112</xdr:col>
+      <xdr:colOff>947488</xdr:colOff>
+      <xdr:row>141</xdr:row>
+      <xdr:rowOff>182000</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="39" name="正方形/長方形 38">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4FAC6193-A981-4B4B-8085-1540A2039399}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="103271388" y="31496000"/>
+          <a:ext cx="11468100" cy="4500000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="17000">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>(2495,2630)</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="17000">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>89</xdr:col>
-      <xdr:colOff>508000</xdr:colOff>
-      <xdr:row>269</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>97</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>301</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="35" name="円/楕円 34">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FEAAAB1A-1098-2842-98D0-F997A3D7B266}"/>
+      <xdr:col>92</xdr:col>
+      <xdr:colOff>317500</xdr:colOff>
+      <xdr:row>131</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>94</xdr:col>
+      <xdr:colOff>317500</xdr:colOff>
+      <xdr:row>139</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="41" name="円/楕円 40">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5B3F3AE6-D9C5-BA4F-9B73-1F0B5FE84943}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5040,8 +6742,71 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="90932000" y="68326000"/>
-          <a:ext cx="8191500" cy="8178800"/>
+          <a:off x="93789500" y="33401000"/>
+          <a:ext cx="2032000" cy="2032000"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>83</xdr:col>
+      <xdr:colOff>279400</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>87</xdr:col>
+      <xdr:colOff>825500</xdr:colOff>
+      <xdr:row>103</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="42" name="円/楕円 41">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3F0DE4B7-FBEE-D640-ADD9-70A4B2BB1F60}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="84607400" y="21996400"/>
+          <a:ext cx="4610100" cy="4292600"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -5084,23 +6849,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
-      <xdr:col>95</xdr:col>
-      <xdr:colOff>482600</xdr:colOff>
-      <xdr:row>291</xdr:row>
+      <xdr:col>91</xdr:col>
+      <xdr:colOff>254000</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>103</xdr:col>
+      <xdr:colOff>635000</xdr:colOff>
+      <xdr:row>105</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>107</xdr:col>
-      <xdr:colOff>863600</xdr:colOff>
-      <xdr:row>303</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="43" name="正方形/長方形 42">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{11CE3A9D-99D5-0C4A-8F78-CF22CD91D3AA}"/>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="46" name="正方形/長方形 45">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7A8337C5-B6BB-AF4D-839A-469BA9D87C93}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5110,7 +6875,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="97002600" y="73914000"/>
+          <a:off x="92710000" y="23520400"/>
           <a:ext cx="12573000" cy="3149600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -5159,23 +6924,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
-      <xdr:col>92</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>195</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>95</xdr:col>
-      <xdr:colOff>63500</xdr:colOff>
-      <xdr:row>259</xdr:row>
+      <xdr:col>73</xdr:col>
+      <xdr:colOff>501650</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>82</xdr:col>
+      <xdr:colOff>762000</xdr:colOff>
+      <xdr:row>91</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="44" name="正方形/長方形 43">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{14F49B49-38A2-424B-A798-E0F791A0DDAA}"/>
+        <xdr:cNvPr id="48" name="正方形/長方形 47">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{84A00FFF-6377-0842-931D-70FE2B033485}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5184,9 +6949,9 @@
         </xdr:cNvSpPr>
       </xdr:nvSpPr>
       <xdr:spPr>
-        <a:xfrm rot="16200000">
-          <a:off x="86975950" y="56178450"/>
-          <a:ext cx="16103600" cy="3111500"/>
+        <a:xfrm>
+          <a:off x="74669650" y="16973550"/>
+          <a:ext cx="9404350" cy="6140450"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5225,8 +6990,24 @@
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>ライン・トレース</a:t>
+            <a:t>ライン・</a:t>
           </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="14200">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="14200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>トレース</a:t>
+          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -5234,23 +7015,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
-      <xdr:col>95</xdr:col>
-      <xdr:colOff>736600</xdr:colOff>
-      <xdr:row>204</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>98</xdr:col>
-      <xdr:colOff>920750</xdr:colOff>
-      <xdr:row>252</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="47" name="正方形/長方形 46">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B40B6073-34BE-D149-A9A6-786DE33E88A9}"/>
+      <xdr:col>73</xdr:col>
+      <xdr:colOff>660400</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>88</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="49" name="正方形/長方形 48">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F16048A3-39C5-2C44-ADCD-DF0D34BA8FE7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5259,9 +7040,9 @@
         </xdr:cNvSpPr>
       </xdr:nvSpPr>
       <xdr:spPr>
-        <a:xfrm rot="16200000">
-          <a:off x="92776675" y="56295925"/>
-          <a:ext cx="12192000" cy="3232150"/>
+        <a:xfrm>
+          <a:off x="74828400" y="14274800"/>
+          <a:ext cx="15113000" cy="2641600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5308,7 +7089,7 @@
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>x</a:t>
+            <a:t>y</a:t>
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="14200">
@@ -5321,6 +7102,264 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>94</xdr:col>
+      <xdr:colOff>939800</xdr:colOff>
+      <xdr:row>298</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>106</xdr:col>
+      <xdr:colOff>279400</xdr:colOff>
+      <xdr:row>316</xdr:row>
+      <xdr:rowOff>105800</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="50" name="正方形/長方形 49">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F94CCB0F-331D-B348-BB9E-8F75B8EAD949}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="96443800" y="75869800"/>
+          <a:ext cx="11531600" cy="4500000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="17000">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>(2400,1400)</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="17000">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>81</xdr:col>
+      <xdr:colOff>88900</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>83</xdr:col>
+      <xdr:colOff>88900</xdr:colOff>
+      <xdr:row>97</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="51" name="円/楕円 50">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{781294B0-1784-3742-B8F7-A25752114626}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="82384900" y="22631400"/>
+          <a:ext cx="2032000" cy="2032000"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>97</xdr:col>
+      <xdr:colOff>299788</xdr:colOff>
+      <xdr:row>209</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>108</xdr:col>
+      <xdr:colOff>591888</xdr:colOff>
+      <xdr:row>226</xdr:row>
+      <xdr:rowOff>207400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="52" name="正方形/長方形 51">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AFAF1629-2914-0F48-B9E4-B2571A795C80}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="98851788" y="53111400"/>
+          <a:ext cx="11468100" cy="4500000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="17000">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>(2495,2075)</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="17000">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing12.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>184150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>876300</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="グラフ 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B95F73ED-2A03-2740-8BC7-F25252F2C538}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -9840,14 +11879,14 @@
     <xdr:from>
       <xdr:col>29</xdr:col>
       <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>142</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
+      <xdr:row>144</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>41</xdr:col>
       <xdr:colOff>789000</xdr:colOff>
-      <xdr:row>192</xdr:row>
-      <xdr:rowOff>27000</xdr:rowOff>
+      <xdr:row>193</xdr:row>
+      <xdr:rowOff>154000</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -9864,8 +11903,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="28003500" y="36195000"/>
-          <a:ext cx="11838000" cy="12600000"/>
+          <a:off x="29845000" y="36576000"/>
+          <a:ext cx="12600000" cy="12600000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -11658,6 +13697,209 @@
               <a:schemeClr val="tx1"/>
             </a:solidFill>
           </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>127000</xdr:colOff>
+      <xdr:row>95</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>83</xdr:col>
+      <xdr:colOff>439000</xdr:colOff>
+      <xdr:row>511</xdr:row>
+      <xdr:rowOff>21400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="33" name="正方形/長方形 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9D01E3EB-39D8-FF43-8AD7-1373CAF0C374}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5207000" y="24155400"/>
+          <a:ext cx="79560000" cy="105660000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>87</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>98</xdr:col>
+      <xdr:colOff>508000</xdr:colOff>
+      <xdr:row>102</xdr:row>
+      <xdr:rowOff>80400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="34" name="正方形/長方形 33">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{47FA52B9-AD03-EC4C-A5FF-3AC0347564CB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="88544400" y="21488400"/>
+          <a:ext cx="11531600" cy="4500000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="17000">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>(2210,2935)</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="17000">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>279400</xdr:colOff>
+      <xdr:row>181</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>93</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>507</xdr:row>
+      <xdr:rowOff>183800</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="35" name="正方形/長方形 34">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{962D9B03-7A04-1645-9357-6457C51750A0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5359400" y="46101000"/>
+          <a:ext cx="89509600" cy="82860800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -13771,6 +16013,151 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>312488</xdr:colOff>
+      <xdr:row>216</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>93</xdr:col>
+      <xdr:colOff>660408</xdr:colOff>
+      <xdr:row>510</xdr:row>
+      <xdr:rowOff>151000</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="34" name="正方形/長方形 33">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F97E6F55-6C69-914E-A1FB-82A3A026E0CC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5392488" y="54991000"/>
+          <a:ext cx="89755920" cy="74700000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="76200">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>96</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>205</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>107</xdr:col>
+      <xdr:colOff>508000</xdr:colOff>
+      <xdr:row>222</xdr:row>
+      <xdr:rowOff>207400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="35" name="正方形/長方形 34">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{266D9314-2220-0242-87E2-97906210C859}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="97688400" y="52095400"/>
+          <a:ext cx="11531600" cy="4500000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="17000">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>(2495,2075)</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="17000">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -15914,15 +18301,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>34</xdr:col>
-      <xdr:colOff>914400</xdr:colOff>
-      <xdr:row>464</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>45</xdr:col>
-      <xdr:colOff>538400</xdr:colOff>
-      <xdr:row>481</xdr:row>
-      <xdr:rowOff>207400</xdr:rowOff>
+      <xdr:colOff>279400</xdr:colOff>
+      <xdr:row>491</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>44</xdr:col>
+      <xdr:colOff>919400</xdr:colOff>
+      <xdr:row>509</xdr:row>
+      <xdr:rowOff>80400</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -15939,8 +18326,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="33299400" y="117881400"/>
-          <a:ext cx="10101500" cy="4500000"/>
+          <a:off x="34823400" y="124866400"/>
+          <a:ext cx="10800000" cy="4500000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -15976,7 +18363,7 @@
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>(1140,330)</a:t>
+            <a:t>(1140,165</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="17000">
             <a:solidFill>
@@ -16967,7 +19354,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CD11F90-6172-504F-8D09-785584568889}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A123" zoomScale="10" zoomScaleNormal="10" workbookViewId="0">
+    <sheetView topLeftCell="A125" zoomScale="10" zoomScaleNormal="10" workbookViewId="0">
       <selection activeCell="DR426" sqref="DR426"/>
     </sheetView>
   </sheetViews>
@@ -16983,8 +19370,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4E69A08-6157-3046-A0AD-F5965CF91422}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A120" zoomScale="10" zoomScaleNormal="10" workbookViewId="0">
-      <selection activeCell="DF328" sqref="DF328"/>
+    <sheetView topLeftCell="A136" zoomScale="10" zoomScaleNormal="10" workbookViewId="0">
+      <selection activeCell="EJ329" sqref="EJ329"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -16999,14 +19386,874 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB0DD1CD-4FA4-9E45-B6BB-0F24850E37CC}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A107" zoomScale="10" zoomScaleNormal="10" workbookViewId="0">
-      <selection activeCell="DE326" sqref="DE325:DE326"/>
+    <sheetView topLeftCell="A79" zoomScale="10" zoomScaleNormal="10" workbookViewId="0">
+      <selection activeCell="EP231" sqref="EP231"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC0D6C9E-10A1-E446-929B-01BD39C51451}">
+  <dimension ref="C1:Q32"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="O16" zoomScale="186" zoomScaleNormal="186" workbookViewId="0">
+      <selection activeCell="R19" sqref="R19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
+  <sheetData>
+    <row r="1" spans="3:17" ht="21" thickBot="1"/>
+    <row r="2" spans="3:17">
+      <c r="D2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" t="s">
+        <v>4</v>
+      </c>
+      <c r="L2" t="s">
+        <v>1</v>
+      </c>
+      <c r="M2" t="s">
+        <v>3</v>
+      </c>
+      <c r="O2" s="3"/>
+      <c r="P2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q2" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="3:17">
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <f>C3*350</f>
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>1050</v>
+      </c>
+      <c r="I3">
+        <v>350</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>1050</v>
+      </c>
+      <c r="O3" s="6">
+        <v>0</v>
+      </c>
+      <c r="P3" s="7">
+        <f>L3+350</f>
+        <v>350</v>
+      </c>
+      <c r="Q3" s="8">
+        <f>M3+350</f>
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="4" spans="3:17">
+      <c r="C4">
+        <f>C3+1</f>
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <f t="shared" ref="D4:D6" si="0">C4*350</f>
+        <v>350</v>
+      </c>
+      <c r="E4">
+        <v>1050</v>
+      </c>
+      <c r="I4">
+        <v>2</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4">
+        <v>350</v>
+      </c>
+      <c r="M4">
+        <v>1050</v>
+      </c>
+      <c r="O4" s="6">
+        <v>1</v>
+      </c>
+      <c r="P4" s="7">
+        <f t="shared" ref="P4:P6" si="1">L4+350</f>
+        <v>700</v>
+      </c>
+      <c r="Q4" s="8">
+        <f t="shared" ref="Q4:Q6" si="2">M4+350</f>
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="5" spans="3:17">
+      <c r="C5">
+        <f t="shared" ref="C5:C6" si="3">C4+1</f>
+        <v>2</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="0"/>
+        <v>700</v>
+      </c>
+      <c r="E5">
+        <v>1050</v>
+      </c>
+      <c r="I5">
+        <f>I3/I4</f>
+        <v>175</v>
+      </c>
+      <c r="K5">
+        <v>2</v>
+      </c>
+      <c r="L5">
+        <v>700</v>
+      </c>
+      <c r="M5">
+        <v>1050</v>
+      </c>
+      <c r="O5" s="6">
+        <v>2</v>
+      </c>
+      <c r="P5" s="7">
+        <f t="shared" si="1"/>
+        <v>1050</v>
+      </c>
+      <c r="Q5" s="8">
+        <f t="shared" si="2"/>
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="6" spans="3:17">
+      <c r="C6">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="0"/>
+        <v>1050</v>
+      </c>
+      <c r="E6">
+        <v>1050</v>
+      </c>
+      <c r="I6">
+        <f>SQRT(2)</f>
+        <v>1.4142135623730951</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>1050</v>
+      </c>
+      <c r="M6">
+        <v>1050</v>
+      </c>
+      <c r="O6" s="6">
+        <v>3</v>
+      </c>
+      <c r="P6" s="7">
+        <f t="shared" si="1"/>
+        <v>1400</v>
+      </c>
+      <c r="Q6" s="8">
+        <f t="shared" si="2"/>
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="7" spans="3:17" ht="23" customHeight="1">
+      <c r="I7">
+        <f>I5*I6</f>
+        <v>247.48737341529164</v>
+      </c>
+      <c r="O7" s="6"/>
+      <c r="P7" s="7"/>
+      <c r="Q7" s="8"/>
+    </row>
+    <row r="8" spans="3:17">
+      <c r="C8">
+        <v>4</v>
+      </c>
+      <c r="D8" s="2">
+        <v>175</v>
+      </c>
+      <c r="E8" s="2">
+        <f>E17+350</f>
+        <v>875</v>
+      </c>
+      <c r="K8">
+        <v>4</v>
+      </c>
+      <c r="L8">
+        <v>175</v>
+      </c>
+      <c r="M8">
+        <v>875</v>
+      </c>
+      <c r="O8" s="6">
+        <v>4</v>
+      </c>
+      <c r="P8" s="7">
+        <f t="shared" ref="P8:P10" si="4">L8+350</f>
+        <v>525</v>
+      </c>
+      <c r="Q8" s="8">
+        <f t="shared" ref="Q8:Q10" si="5">M8+350</f>
+        <v>1225</v>
+      </c>
+    </row>
+    <row r="9" spans="3:17">
+      <c r="C9">
+        <v>5</v>
+      </c>
+      <c r="D9" s="2">
+        <v>525</v>
+      </c>
+      <c r="E9">
+        <v>875</v>
+      </c>
+      <c r="K9">
+        <v>5</v>
+      </c>
+      <c r="L9">
+        <v>525</v>
+      </c>
+      <c r="M9">
+        <v>875</v>
+      </c>
+      <c r="O9" s="6">
+        <v>5</v>
+      </c>
+      <c r="P9" s="7">
+        <f t="shared" si="4"/>
+        <v>875</v>
+      </c>
+      <c r="Q9" s="8">
+        <f t="shared" si="5"/>
+        <v>1225</v>
+      </c>
+    </row>
+    <row r="10" spans="3:17">
+      <c r="C10">
+        <v>6</v>
+      </c>
+      <c r="D10" s="2">
+        <v>875</v>
+      </c>
+      <c r="E10">
+        <v>875</v>
+      </c>
+      <c r="K10">
+        <v>6</v>
+      </c>
+      <c r="L10">
+        <v>875</v>
+      </c>
+      <c r="M10">
+        <v>875</v>
+      </c>
+      <c r="O10" s="6">
+        <v>6</v>
+      </c>
+      <c r="P10" s="7">
+        <f t="shared" si="4"/>
+        <v>1225</v>
+      </c>
+      <c r="Q10" s="8">
+        <f t="shared" si="5"/>
+        <v>1225</v>
+      </c>
+    </row>
+    <row r="11" spans="3:17">
+      <c r="O11" s="6"/>
+      <c r="P11" s="7"/>
+      <c r="Q11" s="8"/>
+    </row>
+    <row r="12" spans="3:17">
+      <c r="C12">
+        <f>C10+1</f>
+        <v>7</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>700</v>
+      </c>
+      <c r="K12">
+        <v>7</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>700</v>
+      </c>
+      <c r="O12" s="6">
+        <v>7</v>
+      </c>
+      <c r="P12" s="7">
+        <f t="shared" ref="P12:P15" si="6">L12+350</f>
+        <v>350</v>
+      </c>
+      <c r="Q12" s="8">
+        <f t="shared" ref="Q12:Q15" si="7">M12+350</f>
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="13" spans="3:17">
+      <c r="C13">
+        <f>C12+1</f>
+        <v>8</v>
+      </c>
+      <c r="D13">
+        <v>350</v>
+      </c>
+      <c r="E13">
+        <v>700</v>
+      </c>
+      <c r="K13">
+        <v>8</v>
+      </c>
+      <c r="L13">
+        <v>350</v>
+      </c>
+      <c r="M13">
+        <v>700</v>
+      </c>
+      <c r="O13" s="6">
+        <v>8</v>
+      </c>
+      <c r="P13" s="7">
+        <f t="shared" si="6"/>
+        <v>700</v>
+      </c>
+      <c r="Q13" s="8">
+        <f t="shared" si="7"/>
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="14" spans="3:17">
+      <c r="C14">
+        <f t="shared" ref="C14:C15" si="8">C13+1</f>
+        <v>9</v>
+      </c>
+      <c r="D14">
+        <v>700</v>
+      </c>
+      <c r="E14">
+        <v>700</v>
+      </c>
+      <c r="K14">
+        <v>9</v>
+      </c>
+      <c r="L14">
+        <v>700</v>
+      </c>
+      <c r="M14">
+        <v>700</v>
+      </c>
+      <c r="O14" s="6">
+        <v>9</v>
+      </c>
+      <c r="P14" s="7">
+        <f t="shared" si="6"/>
+        <v>1050</v>
+      </c>
+      <c r="Q14" s="8">
+        <f t="shared" si="7"/>
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="15" spans="3:17">
+      <c r="C15">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="D15">
+        <v>1050</v>
+      </c>
+      <c r="E15">
+        <v>700</v>
+      </c>
+      <c r="K15">
+        <v>10</v>
+      </c>
+      <c r="L15">
+        <v>1050</v>
+      </c>
+      <c r="M15">
+        <v>700</v>
+      </c>
+      <c r="O15" s="6">
+        <v>10</v>
+      </c>
+      <c r="P15" s="7">
+        <f t="shared" si="6"/>
+        <v>1400</v>
+      </c>
+      <c r="Q15" s="8">
+        <f t="shared" si="7"/>
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="16" spans="3:17">
+      <c r="O16" s="6"/>
+      <c r="P16" s="7"/>
+      <c r="Q16" s="8"/>
+    </row>
+    <row r="17" spans="3:17">
+      <c r="C17">
+        <f>C15+1</f>
+        <v>11</v>
+      </c>
+      <c r="D17" s="2">
+        <v>175</v>
+      </c>
+      <c r="E17" s="2">
+        <f>D17+350</f>
+        <v>525</v>
+      </c>
+      <c r="K17">
+        <v>11</v>
+      </c>
+      <c r="L17">
+        <v>175</v>
+      </c>
+      <c r="M17">
+        <v>525</v>
+      </c>
+      <c r="O17" s="6">
+        <v>11</v>
+      </c>
+      <c r="P17" s="7">
+        <f t="shared" ref="P17:P18" si="9">L17+350</f>
+        <v>525</v>
+      </c>
+      <c r="Q17" s="8">
+        <f t="shared" ref="Q17:Q18" si="10">M17+350</f>
+        <v>875</v>
+      </c>
+    </row>
+    <row r="18" spans="3:17">
+      <c r="C18">
+        <f>C17+1</f>
+        <v>12</v>
+      </c>
+      <c r="D18" s="2">
+        <v>875</v>
+      </c>
+      <c r="E18" s="2">
+        <v>525</v>
+      </c>
+      <c r="K18">
+        <v>12</v>
+      </c>
+      <c r="L18">
+        <v>875</v>
+      </c>
+      <c r="M18">
+        <v>525</v>
+      </c>
+      <c r="O18" s="6">
+        <v>12</v>
+      </c>
+      <c r="P18" s="7">
+        <f t="shared" si="9"/>
+        <v>1225</v>
+      </c>
+      <c r="Q18" s="8">
+        <f t="shared" si="10"/>
+        <v>875</v>
+      </c>
+    </row>
+    <row r="19" spans="3:17">
+      <c r="O19" s="6"/>
+      <c r="P19" s="7"/>
+      <c r="Q19" s="8"/>
+    </row>
+    <row r="20" spans="3:17">
+      <c r="C20">
+        <f>C18+1</f>
+        <v>13</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>350</v>
+      </c>
+      <c r="K20">
+        <v>13</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>350</v>
+      </c>
+      <c r="O20" s="6">
+        <v>13</v>
+      </c>
+      <c r="P20" s="7">
+        <f t="shared" ref="P20:P23" si="11">L20+350</f>
+        <v>350</v>
+      </c>
+      <c r="Q20" s="8">
+        <f t="shared" ref="Q20:Q23" si="12">M20+350</f>
+        <v>700</v>
+      </c>
+    </row>
+    <row r="21" spans="3:17">
+      <c r="C21">
+        <f>C20+1</f>
+        <v>14</v>
+      </c>
+      <c r="D21">
+        <v>350</v>
+      </c>
+      <c r="E21">
+        <v>350</v>
+      </c>
+      <c r="K21">
+        <v>14</v>
+      </c>
+      <c r="L21">
+        <v>350</v>
+      </c>
+      <c r="M21">
+        <v>350</v>
+      </c>
+      <c r="O21" s="6">
+        <v>14</v>
+      </c>
+      <c r="P21" s="7">
+        <f t="shared" si="11"/>
+        <v>700</v>
+      </c>
+      <c r="Q21" s="8">
+        <f t="shared" si="12"/>
+        <v>700</v>
+      </c>
+    </row>
+    <row r="22" spans="3:17">
+      <c r="C22">
+        <f t="shared" ref="C22:C23" si="13">C21+1</f>
+        <v>15</v>
+      </c>
+      <c r="D22">
+        <v>700</v>
+      </c>
+      <c r="E22">
+        <v>350</v>
+      </c>
+      <c r="K22">
+        <v>15</v>
+      </c>
+      <c r="L22">
+        <v>700</v>
+      </c>
+      <c r="M22">
+        <v>350</v>
+      </c>
+      <c r="O22" s="6">
+        <v>15</v>
+      </c>
+      <c r="P22" s="7">
+        <f t="shared" si="11"/>
+        <v>1050</v>
+      </c>
+      <c r="Q22" s="8">
+        <f t="shared" si="12"/>
+        <v>700</v>
+      </c>
+    </row>
+    <row r="23" spans="3:17">
+      <c r="C23">
+        <f t="shared" si="13"/>
+        <v>16</v>
+      </c>
+      <c r="D23">
+        <v>1050</v>
+      </c>
+      <c r="E23">
+        <v>350</v>
+      </c>
+      <c r="K23">
+        <v>16</v>
+      </c>
+      <c r="L23">
+        <v>1050</v>
+      </c>
+      <c r="M23">
+        <v>350</v>
+      </c>
+      <c r="O23" s="6">
+        <v>16</v>
+      </c>
+      <c r="P23" s="7">
+        <f t="shared" si="11"/>
+        <v>1400</v>
+      </c>
+      <c r="Q23" s="8">
+        <f t="shared" si="12"/>
+        <v>700</v>
+      </c>
+    </row>
+    <row r="24" spans="3:17">
+      <c r="O24" s="6"/>
+      <c r="P24" s="7"/>
+      <c r="Q24" s="8"/>
+    </row>
+    <row r="25" spans="3:17">
+      <c r="C25">
+        <f>C23+1</f>
+        <v>17</v>
+      </c>
+      <c r="D25" s="2">
+        <v>175</v>
+      </c>
+      <c r="E25" s="2">
+        <v>175</v>
+      </c>
+      <c r="K25">
+        <v>17</v>
+      </c>
+      <c r="L25">
+        <v>175</v>
+      </c>
+      <c r="M25">
+        <v>175</v>
+      </c>
+      <c r="O25" s="6">
+        <v>17</v>
+      </c>
+      <c r="P25" s="7">
+        <f t="shared" ref="P25:P27" si="14">L25+350</f>
+        <v>525</v>
+      </c>
+      <c r="Q25" s="8">
+        <f t="shared" ref="Q25:Q27" si="15">M25+350</f>
+        <v>525</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17">
+      <c r="C26">
+        <f>C25+1</f>
+        <v>18</v>
+      </c>
+      <c r="D26" s="2">
+        <f>D25+350</f>
+        <v>525</v>
+      </c>
+      <c r="E26" s="2">
+        <v>175</v>
+      </c>
+      <c r="K26">
+        <v>18</v>
+      </c>
+      <c r="L26">
+        <v>525</v>
+      </c>
+      <c r="M26">
+        <v>175</v>
+      </c>
+      <c r="O26" s="6">
+        <v>18</v>
+      </c>
+      <c r="P26" s="7">
+        <f t="shared" si="14"/>
+        <v>875</v>
+      </c>
+      <c r="Q26" s="8">
+        <f t="shared" si="15"/>
+        <v>525</v>
+      </c>
+    </row>
+    <row r="27" spans="3:17">
+      <c r="C27">
+        <f>C26+1</f>
+        <v>19</v>
+      </c>
+      <c r="D27" s="2">
+        <f>D26+350</f>
+        <v>875</v>
+      </c>
+      <c r="E27" s="2">
+        <v>175</v>
+      </c>
+      <c r="K27">
+        <v>19</v>
+      </c>
+      <c r="L27">
+        <v>875</v>
+      </c>
+      <c r="M27">
+        <v>175</v>
+      </c>
+      <c r="O27" s="6">
+        <v>19</v>
+      </c>
+      <c r="P27" s="7">
+        <f t="shared" si="14"/>
+        <v>1225</v>
+      </c>
+      <c r="Q27" s="8">
+        <f t="shared" si="15"/>
+        <v>525</v>
+      </c>
+    </row>
+    <row r="28" spans="3:17">
+      <c r="O28" s="6"/>
+      <c r="P28" s="7"/>
+      <c r="Q28" s="8"/>
+    </row>
+    <row r="29" spans="3:17">
+      <c r="C29">
+        <f>C27+1</f>
+        <v>20</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="K29">
+        <v>20</v>
+      </c>
+      <c r="L29">
+        <v>0</v>
+      </c>
+      <c r="M29">
+        <v>0</v>
+      </c>
+      <c r="O29" s="6">
+        <v>20</v>
+      </c>
+      <c r="P29" s="7">
+        <f t="shared" ref="P29:P32" si="16">L29+350</f>
+        <v>350</v>
+      </c>
+      <c r="Q29" s="8">
+        <f t="shared" ref="Q29:Q32" si="17">M29+350</f>
+        <v>350</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17">
+      <c r="C30">
+        <f>C29+1</f>
+        <v>21</v>
+      </c>
+      <c r="D30">
+        <v>350</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="K30">
+        <v>21</v>
+      </c>
+      <c r="L30">
+        <v>350</v>
+      </c>
+      <c r="M30">
+        <v>0</v>
+      </c>
+      <c r="O30" s="6">
+        <v>21</v>
+      </c>
+      <c r="P30" s="7">
+        <f t="shared" si="16"/>
+        <v>700</v>
+      </c>
+      <c r="Q30" s="8">
+        <f t="shared" si="17"/>
+        <v>350</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17">
+      <c r="C31">
+        <f t="shared" ref="C31:C32" si="18">C30+1</f>
+        <v>22</v>
+      </c>
+      <c r="D31">
+        <v>700</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="K31">
+        <v>22</v>
+      </c>
+      <c r="L31">
+        <v>700</v>
+      </c>
+      <c r="M31">
+        <v>0</v>
+      </c>
+      <c r="O31" s="6">
+        <v>22</v>
+      </c>
+      <c r="P31" s="7">
+        <f t="shared" si="16"/>
+        <v>1050</v>
+      </c>
+      <c r="Q31" s="8">
+        <f t="shared" si="17"/>
+        <v>350</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" ht="21" thickBot="1">
+      <c r="C32">
+        <f t="shared" si="18"/>
+        <v>23</v>
+      </c>
+      <c r="D32">
+        <v>1050</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="K32">
+        <v>23</v>
+      </c>
+      <c r="L32">
+        <v>1050</v>
+      </c>
+      <c r="M32">
+        <v>0</v>
+      </c>
+      <c r="O32" s="9">
+        <v>23</v>
+      </c>
+      <c r="P32" s="10">
+        <f t="shared" si="16"/>
+        <v>1400</v>
+      </c>
+      <c r="Q32" s="11">
+        <f t="shared" si="17"/>
+        <v>350</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
@@ -17069,8 +20316,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC0E7A75-46C7-1841-9EF0-B9AC5F961D8D}">
   <dimension ref="EI332"/>
   <sheetViews>
-    <sheetView topLeftCell="A196" zoomScale="10" zoomScaleNormal="10" workbookViewId="0">
-      <selection activeCell="CH550" sqref="CH550"/>
+    <sheetView topLeftCell="A6" zoomScale="10" zoomScaleNormal="10" workbookViewId="0">
+      <selection activeCell="DU172" sqref="DU172"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -17091,8 +20338,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2D3F457-5443-8140-A1C2-32A729A4C0D5}">
   <dimension ref="EI332"/>
   <sheetViews>
-    <sheetView topLeftCell="A123" zoomScale="10" zoomScaleNormal="10" workbookViewId="0">
-      <selection activeCell="DE318" sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="A99" zoomScale="10" zoomScaleNormal="10" workbookViewId="0">
+      <selection activeCell="FQ248" sqref="FQ248"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -17110,292 +20357,6 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D521F8A-A98F-BA49-990E-666A6E47EA47}">
-  <dimension ref="A8:M41"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M9" sqref="M9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
-  <sheetData>
-    <row r="8" spans="1:13">
-      <c r="L8">
-        <v>950</v>
-      </c>
-      <c r="M8">
-        <f>L8/2</f>
-        <v>475</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
-      <c r="C9">
-        <v>1580</v>
-      </c>
-      <c r="D9">
-        <v>165</v>
-      </c>
-      <c r="E9">
-        <f>C9+D9</f>
-        <v>1745</v>
-      </c>
-      <c r="H9">
-        <v>475</v>
-      </c>
-      <c r="I9">
-        <f>C9-H9</f>
-        <v>1105</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
-      <c r="C10">
-        <v>1140</v>
-      </c>
-      <c r="E10">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
-      <c r="A11">
-        <v>1580</v>
-      </c>
-      <c r="C11">
-        <f>C9-C10</f>
-        <v>440</v>
-      </c>
-      <c r="E11">
-        <f>E10+C11</f>
-        <v>605</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
-      <c r="A12">
-        <v>1140</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
-      <c r="A13">
-        <f>A11-A12</f>
-        <v>440</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
-      <c r="I14">
-        <v>1150</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
-      <c r="C15">
-        <v>950</v>
-      </c>
-      <c r="D15">
-        <v>2</v>
-      </c>
-      <c r="E15">
-        <f>C15/D15</f>
-        <v>475</v>
-      </c>
-      <c r="I15">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
-      <c r="I16">
-        <f>I14+I15</f>
-        <v>1625</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
-      <c r="G18">
-        <v>1745</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
-      <c r="G19">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
-      <c r="G20">
-        <f>G18+G19</f>
-        <v>2075</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
-      <c r="C25">
-        <v>1625</v>
-      </c>
-      <c r="D25">
-        <v>290</v>
-      </c>
-      <c r="E25">
-        <f>C25-D25</f>
-        <v>1335</v>
-      </c>
-      <c r="H25">
-        <v>1745</v>
-      </c>
-      <c r="I25">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12">
-      <c r="H26">
-        <v>375</v>
-      </c>
-      <c r="I26">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12">
-      <c r="H27">
-        <f>H25+H26</f>
-        <v>2120</v>
-      </c>
-      <c r="I27">
-        <f>I25+I26</f>
-        <v>890</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12">
-      <c r="H29">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12">
-      <c r="A30">
-        <v>1625</v>
-      </c>
-      <c r="C30">
-        <v>500</v>
-      </c>
-      <c r="H30">
-        <v>375</v>
-      </c>
-      <c r="I30">
-        <v>740</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12">
-      <c r="A31">
-        <v>475</v>
-      </c>
-      <c r="C31">
-        <v>370</v>
-      </c>
-      <c r="F31">
-        <v>850</v>
-      </c>
-      <c r="H31">
-        <f>H29+H30</f>
-        <v>540</v>
-      </c>
-      <c r="I31">
-        <f>I30/2</f>
-        <v>370</v>
-      </c>
-      <c r="K31">
-        <v>585</v>
-      </c>
-      <c r="L31">
-        <f>K31+I31</f>
-        <v>955</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12">
-      <c r="A32">
-        <f>A30-A31</f>
-        <v>1150</v>
-      </c>
-      <c r="C32">
-        <f>C30-C31</f>
-        <v>130</v>
-      </c>
-      <c r="F32">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
-      <c r="C33">
-        <v>370</v>
-      </c>
-      <c r="F33">
-        <f>F31/F32</f>
-        <v>425</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
-      <c r="C34">
-        <f>C32+C33</f>
-        <v>500</v>
-      </c>
-      <c r="H34">
-        <v>2120</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
-      <c r="F35">
-        <v>1625</v>
-      </c>
-      <c r="H35">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
-      <c r="A36">
-        <v>750</v>
-      </c>
-      <c r="F36">
-        <f>F33+F35</f>
-        <v>2050</v>
-      </c>
-      <c r="H36">
-        <f>H34+H35</f>
-        <v>2495</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
-      <c r="A37">
-        <f>A36/2</f>
-        <v>375</v>
-      </c>
-      <c r="C37">
-        <v>2050</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
-      <c r="C38">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
-      <c r="A39">
-        <v>2050</v>
-      </c>
-      <c r="C39">
-        <f>C37-C38</f>
-        <v>1700</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
-      <c r="A40">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
-      <c r="A41">
-        <f>A39-A40</f>
-        <v>1700</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A471FDE8-B665-8644-A301-27AF1529F2A3}">
   <dimension ref="J17"/>
   <sheetViews>
@@ -17415,7 +20376,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECF1118A-BD67-BB41-B9F3-FB6B0BE6E76F}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -17429,4 +20390,17 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F9F3098-9E40-9743-A996-E0ABF115B044}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Documents/Lコース座標.xlsx
+++ b/Documents/Lコース座標.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/KaoruOta/ET_Robocon/ev3rt-beta7-release/hrp2/sdk/workspace/hiro_jiren/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{8D893AED-2C4C-924D-9687-487A9416336F}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{AB3B7637-43D4-8249-87C1-B3C7F40CFD94}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="21060" yWindow="460" windowWidth="16380" windowHeight="21140" activeTab="12" xr2:uid="{6DB03CC7-F739-074A-9B67-9A070117031E}"/>
+    <workbookView xWindow="19200" yWindow="460" windowWidth="10000" windowHeight="17540" firstSheet="3" activeTab="12" xr2:uid="{6DB03CC7-F739-074A-9B67-9A070117031E}"/>
   </bookViews>
   <sheets>
     <sheet name="Start-1st_CR" sheetId="1" r:id="rId1"/>
@@ -27,12 +27,6 @@
     <sheet name="走行コンセプト③" sheetId="13" r:id="rId12"/>
     <sheet name="ブロックビンコ" sheetId="15" r:id="rId13"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">ブロックビンコ!$P$2</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">ブロックビンコ!$P$3:$P$32</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">ブロックビンコ!$Q$2</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">ブロックビンコ!$Q$3:$Q$32</definedName>
-  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -1253,189 +1247,214 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>618229</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>41340</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>106</xdr:col>
+      <xdr:colOff>104536</xdr:colOff>
+      <xdr:row>526</xdr:row>
+      <xdr:rowOff>127600</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{85FBDD0E-A79A-FB49-B652-8433084F8D66}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3666229" y="2073340"/>
+          <a:ext cx="104134307" cy="131658260"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>158646</xdr:colOff>
+      <xdr:row>487</xdr:row>
+      <xdr:rowOff>146722</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>157502</xdr:colOff>
+      <xdr:row>510</xdr:row>
+      <xdr:rowOff>242409</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="正方形/長方形 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E4786F1E-F01C-3B47-AC0B-11F998BDFF05}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5238646" y="123844722"/>
+          <a:ext cx="17270856" cy="5937687"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="76200">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
+      <xdr:row>510</xdr:row>
+      <xdr:rowOff>242410</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>107</xdr:col>
+      <xdr:colOff>508000</xdr:colOff>
+      <xdr:row>510</xdr:row>
+      <xdr:rowOff>242410</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="19" name="直線コネクタ 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A4E0C3F-F084-3C49-9A8A-A3D0B966909E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="129782410"/>
+          <a:ext cx="109220000" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>158646</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>127000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>107</xdr:col>
-      <xdr:colOff>508000</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>158646</xdr:colOff>
       <xdr:row>534</xdr:row>
       <xdr:rowOff>143773</xdr:rowOff>
     </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="29" name="グループ化 28">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AA6CB8A2-F907-3448-AB0C-51A709ED7190}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="0" y="381000"/>
-          <a:ext cx="109220000" cy="135398773"/>
-          <a:chOff x="0" y="390585"/>
-          <a:chExt cx="103066491" cy="140507528"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:pic>
-        <xdr:nvPicPr>
-          <xdr:cNvPr id="2" name="図 1">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{85FBDD0E-A79A-FB49-B652-8433084F8D66}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvPicPr>
-            <a:picLocks noChangeAspect="1"/>
-          </xdr:cNvPicPr>
-        </xdr:nvPicPr>
-        <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-          <a:stretch>
-            <a:fillRect/>
-          </a:stretch>
-        </xdr:blipFill>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="3459672" y="2146779"/>
-            <a:ext cx="98267328" cy="136625881"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-      </xdr:pic>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="5" name="正方形/長方形 4">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E4786F1E-F01C-3B47-AC0B-11F998BDFF05}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr>
-            <a:spLocks/>
-          </xdr:cNvSpPr>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="4943498" y="128512739"/>
-            <a:ext cx="16297807" cy="6161723"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln w="76200">
-            <a:solidFill>
-              <a:srgbClr val="FF0000"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:cxnSp macro="">
-        <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="19" name="直線コネクタ 18">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A4E0C3F-F084-3C49-9A8A-A3D0B966909E}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvCxnSpPr/>
-        </xdr:nvCxnSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="0" y="134674462"/>
-            <a:ext cx="103066491" cy="0"/>
-          </a:xfrm>
-          <a:prstGeom prst="line">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="tx1"/>
-          </a:fontRef>
-        </xdr:style>
-      </xdr:cxnSp>
-      <xdr:cxnSp macro="">
-        <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="23" name="直線コネクタ 22">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9A18F328-3DF2-0044-96F5-FDD765E44221}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvCxnSpPr/>
-        </xdr:nvCxnSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="4943498" y="390585"/>
-            <a:ext cx="0" cy="140507528"/>
-          </a:xfrm>
-          <a:prstGeom prst="line">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="tx1"/>
-          </a:fontRef>
-        </xdr:style>
-      </xdr:cxnSp>
-    </xdr:grpSp>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="23" name="直線コネクタ 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9A18F328-3DF2-0044-96F5-FDD765E44221}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5238646" y="381000"/>
+          <a:ext cx="0" cy="135398773"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="absolute">
@@ -2161,6 +2180,76 @@
               <a:schemeClr val="tx1"/>
             </a:solidFill>
           </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>181988</xdr:colOff>
+      <xdr:row>95</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>68</xdr:col>
+      <xdr:colOff>793988</xdr:colOff>
+      <xdr:row>510</xdr:row>
+      <xdr:rowOff>197000</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="正方形/長方形 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{944F575D-464D-F745-A836-D96D456F88E1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5261988" y="24257000"/>
+          <a:ext cx="64620000" cy="105480000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="76200">
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -19338,8 +19427,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C5BEF2C-B068-7241-BB55-D06C24E526EC}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A176" zoomScale="10" zoomScaleNormal="10" workbookViewId="0">
-      <selection activeCell="AQ596" sqref="AQ596"/>
+    <sheetView topLeftCell="B84" zoomScale="10" zoomScaleNormal="10" workbookViewId="0">
+      <selection activeCell="DT432" sqref="DT432"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -19386,7 +19475,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB0DD1CD-4FA4-9E45-B6BB-0F24850E37CC}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A79" zoomScale="10" zoomScaleNormal="10" workbookViewId="0">
+    <sheetView topLeftCell="A100" zoomScale="10" zoomScaleNormal="10" workbookViewId="0">
       <selection activeCell="EP231" sqref="EP231"/>
     </sheetView>
   </sheetViews>
@@ -19400,10 +19489,10 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC0D6C9E-10A1-E446-929B-01BD39C51451}">
-  <dimension ref="C1:Q32"/>
+  <dimension ref="C1:S32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O16" zoomScale="186" zoomScaleNormal="186" workbookViewId="0">
-      <selection activeCell="R19" sqref="R19"/>
+    <sheetView tabSelected="1" topLeftCell="F3" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Q20" sqref="Q20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -19816,7 +19905,7 @@
       <c r="P16" s="7"/>
       <c r="Q16" s="8"/>
     </row>
-    <row r="17" spans="3:17">
+    <row r="17" spans="3:19">
       <c r="C17">
         <f>C15+1</f>
         <v>11</v>
@@ -19849,7 +19938,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="18" spans="3:17">
+    <row r="18" spans="3:19">
       <c r="C18">
         <f>C17+1</f>
         <v>12</v>
@@ -19881,12 +19970,12 @@
         <v>875</v>
       </c>
     </row>
-    <row r="19" spans="3:17">
+    <row r="19" spans="3:19">
       <c r="O19" s="6"/>
       <c r="P19" s="7"/>
       <c r="Q19" s="8"/>
     </row>
-    <row r="20" spans="3:17">
+    <row r="20" spans="3:19">
       <c r="C20">
         <f>C18+1</f>
         <v>13</v>
@@ -19918,7 +20007,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="21" spans="3:17">
+    <row r="21" spans="3:19">
       <c r="C21">
         <f>C20+1</f>
         <v>14</v>
@@ -19950,7 +20039,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="22" spans="3:17">
+    <row r="22" spans="3:19">
       <c r="C22">
         <f t="shared" ref="C22:C23" si="13">C21+1</f>
         <v>15</v>
@@ -19982,7 +20071,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="23" spans="3:17">
+    <row r="23" spans="3:19">
       <c r="C23">
         <f t="shared" si="13"/>
         <v>16</v>
@@ -20014,12 +20103,12 @@
         <v>700</v>
       </c>
     </row>
-    <row r="24" spans="3:17">
+    <row r="24" spans="3:19">
       <c r="O24" s="6"/>
       <c r="P24" s="7"/>
       <c r="Q24" s="8"/>
     </row>
-    <row r="25" spans="3:17">
+    <row r="25" spans="3:19">
       <c r="C25">
         <f>C23+1</f>
         <v>17</v>
@@ -20050,8 +20139,12 @@
         <f t="shared" ref="Q25:Q27" si="15">M25+350</f>
         <v>525</v>
       </c>
+      <c r="S25">
+        <f>SQRT(2)</f>
+        <v>1.4142135623730951</v>
+      </c>
     </row>
-    <row r="26" spans="3:17">
+    <row r="26" spans="3:19">
       <c r="C26">
         <f>C25+1</f>
         <v>18</v>
@@ -20083,8 +20176,12 @@
         <f t="shared" si="15"/>
         <v>525</v>
       </c>
+      <c r="S26">
+        <f>S25/2</f>
+        <v>0.70710678118654757</v>
+      </c>
     </row>
-    <row r="27" spans="3:17">
+    <row r="27" spans="3:19">
       <c r="C27">
         <f>C26+1</f>
         <v>19</v>
@@ -20116,13 +20213,17 @@
         <f t="shared" si="15"/>
         <v>525</v>
       </c>
+      <c r="S27">
+        <f>S26*350</f>
+        <v>247.48737341529164</v>
+      </c>
     </row>
-    <row r="28" spans="3:17">
+    <row r="28" spans="3:19">
       <c r="O28" s="6"/>
       <c r="P28" s="7"/>
       <c r="Q28" s="8"/>
     </row>
-    <row r="29" spans="3:17">
+    <row r="29" spans="3:19">
       <c r="C29">
         <f>C27+1</f>
         <v>20</v>
@@ -20154,7 +20255,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="30" spans="3:17">
+    <row r="30" spans="3:19">
       <c r="C30">
         <f>C29+1</f>
         <v>21</v>
@@ -20186,7 +20287,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="31" spans="3:17">
+    <row r="31" spans="3:19">
       <c r="C31">
         <f t="shared" ref="C31:C32" si="18">C30+1</f>
         <v>22</v>
@@ -20218,7 +20319,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="32" spans="3:17" ht="21" thickBot="1">
+    <row r="32" spans="3:19" ht="21" thickBot="1">
       <c r="C32">
         <f t="shared" si="18"/>
         <v>23</v>

--- a/Documents/Lコース座標.xlsx
+++ b/Documents/Lコース座標.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/KaoruOta/ET_Robocon/ev3rt-beta7-release/hrp2/sdk/workspace/hiro_jiren/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{8D893AED-2C4C-924D-9687-487A9416336F}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{5FF9DD36-15B7-2C4D-85CE-9449309B9348}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="21060" yWindow="460" windowWidth="16380" windowHeight="21140" activeTab="12" xr2:uid="{6DB03CC7-F739-074A-9B67-9A070117031E}"/>
+    <workbookView xWindow="16660" yWindow="460" windowWidth="21440" windowHeight="20260" firstSheet="7" activeTab="13" xr2:uid="{6DB03CC7-F739-074A-9B67-9A070117031E}"/>
   </bookViews>
   <sheets>
     <sheet name="Start-1st_CR" sheetId="1" r:id="rId1"/>
@@ -26,13 +26,8 @@
     <sheet name="走行コンセプト②" sheetId="12" r:id="rId11"/>
     <sheet name="走行コンセプト③" sheetId="13" r:id="rId12"/>
     <sheet name="ブロックビンコ" sheetId="15" r:id="rId13"/>
+    <sheet name="Sheet2" sheetId="16" r:id="rId14"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">ブロックビンコ!$P$2</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">ブロックビンコ!$P$3:$P$32</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">ブロックビンコ!$Q$2</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">ブロックビンコ!$Q$3:$Q$32</definedName>
-  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -43,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="23">
   <si>
     <t>ß</t>
     <phoneticPr fontId="1"/>
@@ -60,6 +55,78 @@
   </si>
   <si>
     <t>y</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>{</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>},</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>,</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>velocity</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>predict</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>target_x</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>target_y</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>x12</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>y12</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>x10</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>y10</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>yawangle</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>a</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>dist_vec</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>pow_x</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>pow_y</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>angle_vec</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -19400,16 +19467,16 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC0D6C9E-10A1-E446-929B-01BD39C51451}">
-  <dimension ref="C1:Q32"/>
+  <dimension ref="A1:X66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O16" zoomScale="186" zoomScaleNormal="186" workbookViewId="0">
-      <selection activeCell="R19" sqref="R19"/>
+    <sheetView topLeftCell="D1" zoomScale="66" zoomScaleNormal="66" workbookViewId="0">
+      <selection activeCell="X13" sqref="X13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
   <sheetData>
-    <row r="1" spans="3:17" ht="21" thickBot="1"/>
-    <row r="2" spans="3:17">
+    <row r="1" spans="3:24" ht="21" thickBot="1"/>
+    <row r="2" spans="3:24">
       <c r="D2" t="s">
         <v>2</v>
       </c>
@@ -19430,7 +19497,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="3:17">
+    <row r="3" spans="3:24">
       <c r="C3">
         <v>0</v>
       </c>
@@ -19464,8 +19531,20 @@
         <f>M3+350</f>
         <v>1400</v>
       </c>
+      <c r="S3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T3" s="7">
+        <f>P3+350</f>
+        <v>700</v>
+      </c>
+      <c r="U3" s="7"/>
+      <c r="V3" s="8">
+        <f>Q3+350</f>
+        <v>1750</v>
+      </c>
     </row>
-    <row r="4" spans="3:17">
+    <row r="4" spans="3:24">
       <c r="C4">
         <f>C3+1</f>
         <v>1</v>
@@ -19500,10 +19579,22 @@
         <f t="shared" ref="Q4:Q6" si="2">M4+350</f>
         <v>1400</v>
       </c>
+      <c r="S4" t="s">
+        <v>5</v>
+      </c>
+      <c r="T4" s="7">
+        <f t="shared" ref="T4:T6" si="3">P4+350</f>
+        <v>1050</v>
+      </c>
+      <c r="U4" s="7"/>
+      <c r="V4" s="8">
+        <f t="shared" ref="V4:V6" si="4">Q4+350</f>
+        <v>1750</v>
+      </c>
     </row>
-    <row r="5" spans="3:17">
+    <row r="5" spans="3:24">
       <c r="C5">
-        <f t="shared" ref="C5:C6" si="3">C4+1</f>
+        <f t="shared" ref="C5:C6" si="5">C4+1</f>
         <v>2</v>
       </c>
       <c r="D5">
@@ -19537,10 +19628,22 @@
         <f t="shared" si="2"/>
         <v>1400</v>
       </c>
+      <c r="S5" t="s">
+        <v>5</v>
+      </c>
+      <c r="T5" s="7">
+        <f t="shared" si="3"/>
+        <v>1400</v>
+      </c>
+      <c r="U5" s="7"/>
+      <c r="V5" s="8">
+        <f t="shared" si="4"/>
+        <v>1750</v>
+      </c>
     </row>
-    <row r="6" spans="3:17">
+    <row r="6" spans="3:24">
       <c r="C6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
       <c r="D6">
@@ -19574,8 +19677,20 @@
         <f t="shared" si="2"/>
         <v>1400</v>
       </c>
+      <c r="S6" t="s">
+        <v>5</v>
+      </c>
+      <c r="T6" s="7">
+        <f t="shared" si="3"/>
+        <v>1750</v>
+      </c>
+      <c r="U6" s="7"/>
+      <c r="V6" s="8">
+        <f t="shared" si="4"/>
+        <v>1750</v>
+      </c>
     </row>
-    <row r="7" spans="3:17" ht="23" customHeight="1">
+    <row r="7" spans="3:24" ht="23" customHeight="1">
       <c r="I7">
         <f>I5*I6</f>
         <v>247.48737341529164</v>
@@ -19583,8 +19698,14 @@
       <c r="O7" s="6"/>
       <c r="P7" s="7"/>
       <c r="Q7" s="8"/>
+      <c r="S7" t="s">
+        <v>5</v>
+      </c>
+      <c r="T7" s="7"/>
+      <c r="U7" s="7"/>
+      <c r="V7" s="8"/>
     </row>
-    <row r="8" spans="3:17">
+    <row r="8" spans="3:24">
       <c r="C8">
         <v>4</v>
       </c>
@@ -19608,15 +19729,27 @@
         <v>4</v>
       </c>
       <c r="P8" s="7">
-        <f t="shared" ref="P8:P10" si="4">L8+350</f>
+        <f t="shared" ref="P8:P10" si="6">L8+350</f>
         <v>525</v>
       </c>
       <c r="Q8" s="8">
-        <f t="shared" ref="Q8:Q10" si="5">M8+350</f>
+        <f t="shared" ref="Q8:Q10" si="7">M8+350</f>
         <v>1225</v>
       </c>
+      <c r="S8" t="s">
+        <v>5</v>
+      </c>
+      <c r="T8" s="7">
+        <f t="shared" ref="T8:T10" si="8">P8+350</f>
+        <v>875</v>
+      </c>
+      <c r="U8" s="7"/>
+      <c r="V8" s="8">
+        <f t="shared" ref="V8:V10" si="9">Q8+350</f>
+        <v>1575</v>
+      </c>
     </row>
-    <row r="9" spans="3:17">
+    <row r="9" spans="3:24">
       <c r="C9">
         <v>5</v>
       </c>
@@ -19639,15 +19772,27 @@
         <v>5</v>
       </c>
       <c r="P9" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>875</v>
       </c>
       <c r="Q9" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1225</v>
       </c>
+      <c r="S9" t="s">
+        <v>5</v>
+      </c>
+      <c r="T9" s="7">
+        <f t="shared" si="8"/>
+        <v>1225</v>
+      </c>
+      <c r="U9" s="7"/>
+      <c r="V9" s="8">
+        <f t="shared" si="9"/>
+        <v>1575</v>
+      </c>
     </row>
-    <row r="10" spans="3:17">
+    <row r="10" spans="3:24">
       <c r="C10">
         <v>6</v>
       </c>
@@ -19670,20 +19815,46 @@
         <v>6</v>
       </c>
       <c r="P10" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1225</v>
       </c>
       <c r="Q10" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1225</v>
       </c>
+      <c r="S10" t="s">
+        <v>5</v>
+      </c>
+      <c r="T10" s="7">
+        <f t="shared" si="8"/>
+        <v>1575</v>
+      </c>
+      <c r="U10" s="7"/>
+      <c r="V10" s="8">
+        <f t="shared" si="9"/>
+        <v>1575</v>
+      </c>
+      <c r="X10">
+        <f>SQRT(2)</f>
+        <v>1.4142135623730951</v>
+      </c>
     </row>
-    <row r="11" spans="3:17">
+    <row r="11" spans="3:24">
       <c r="O11" s="6"/>
       <c r="P11" s="7"/>
       <c r="Q11" s="8"/>
+      <c r="S11" t="s">
+        <v>5</v>
+      </c>
+      <c r="T11" s="7"/>
+      <c r="U11" s="7"/>
+      <c r="V11" s="8"/>
+      <c r="X11">
+        <f>X10*350</f>
+        <v>494.97474683058329</v>
+      </c>
     </row>
-    <row r="12" spans="3:17">
+    <row r="12" spans="3:24">
       <c r="C12">
         <f>C10+1</f>
         <v>7</v>
@@ -19707,15 +19878,31 @@
         <v>7</v>
       </c>
       <c r="P12" s="7">
-        <f t="shared" ref="P12:P15" si="6">L12+350</f>
+        <f t="shared" ref="P12:P15" si="10">L12+350</f>
         <v>350</v>
       </c>
       <c r="Q12" s="8">
-        <f t="shared" ref="Q12:Q15" si="7">M12+350</f>
+        <f t="shared" ref="Q12:Q15" si="11">M12+350</f>
         <v>1050</v>
       </c>
+      <c r="S12" t="s">
+        <v>5</v>
+      </c>
+      <c r="T12" s="7">
+        <f t="shared" ref="T12:T15" si="12">P12+350</f>
+        <v>700</v>
+      </c>
+      <c r="U12" s="7"/>
+      <c r="V12" s="8">
+        <f t="shared" ref="V12:V15" si="13">Q12+350</f>
+        <v>1400</v>
+      </c>
+      <c r="X12">
+        <f>X11/2</f>
+        <v>247.48737341529164</v>
+      </c>
     </row>
-    <row r="13" spans="3:17">
+    <row r="13" spans="3:24">
       <c r="C13">
         <f>C12+1</f>
         <v>8</v>
@@ -19739,17 +19926,29 @@
         <v>8</v>
       </c>
       <c r="P13" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>700</v>
       </c>
       <c r="Q13" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>1050</v>
       </c>
+      <c r="S13" t="s">
+        <v>5</v>
+      </c>
+      <c r="T13" s="7">
+        <f t="shared" si="12"/>
+        <v>1050</v>
+      </c>
+      <c r="U13" s="7"/>
+      <c r="V13" s="8">
+        <f t="shared" si="13"/>
+        <v>1400</v>
+      </c>
     </row>
-    <row r="14" spans="3:17">
+    <row r="14" spans="3:24">
       <c r="C14">
-        <f t="shared" ref="C14:C15" si="8">C13+1</f>
+        <f t="shared" ref="C14:C15" si="14">C13+1</f>
         <v>9</v>
       </c>
       <c r="D14">
@@ -19771,17 +19970,29 @@
         <v>9</v>
       </c>
       <c r="P14" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>1050</v>
       </c>
       <c r="Q14" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>1050</v>
       </c>
+      <c r="S14" t="s">
+        <v>5</v>
+      </c>
+      <c r="T14" s="7">
+        <f t="shared" si="12"/>
+        <v>1400</v>
+      </c>
+      <c r="U14" s="7"/>
+      <c r="V14" s="8">
+        <f t="shared" si="13"/>
+        <v>1400</v>
+      </c>
     </row>
-    <row r="15" spans="3:17">
+    <row r="15" spans="3:24">
       <c r="C15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>10</v>
       </c>
       <c r="D15">
@@ -19803,20 +20014,38 @@
         <v>10</v>
       </c>
       <c r="P15" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>1400</v>
       </c>
       <c r="Q15" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>1050</v>
       </c>
+      <c r="S15" t="s">
+        <v>5</v>
+      </c>
+      <c r="T15" s="7">
+        <f t="shared" si="12"/>
+        <v>1750</v>
+      </c>
+      <c r="U15" s="7"/>
+      <c r="V15" s="8">
+        <f t="shared" si="13"/>
+        <v>1400</v>
+      </c>
     </row>
-    <row r="16" spans="3:17">
+    <row r="16" spans="3:24">
       <c r="O16" s="6"/>
       <c r="P16" s="7"/>
       <c r="Q16" s="8"/>
+      <c r="S16" t="s">
+        <v>5</v>
+      </c>
+      <c r="T16" s="7"/>
+      <c r="U16" s="7"/>
+      <c r="V16" s="8"/>
     </row>
-    <row r="17" spans="3:17">
+    <row r="17" spans="3:22">
       <c r="C17">
         <f>C15+1</f>
         <v>11</v>
@@ -19841,15 +20070,27 @@
         <v>11</v>
       </c>
       <c r="P17" s="7">
-        <f t="shared" ref="P17:P18" si="9">L17+350</f>
+        <f t="shared" ref="P17:P18" si="15">L17+350</f>
         <v>525</v>
       </c>
       <c r="Q17" s="8">
-        <f t="shared" ref="Q17:Q18" si="10">M17+350</f>
+        <f t="shared" ref="Q17:Q18" si="16">M17+350</f>
         <v>875</v>
       </c>
+      <c r="S17" t="s">
+        <v>5</v>
+      </c>
+      <c r="T17" s="7">
+        <f t="shared" ref="T17:T18" si="17">P17+350</f>
+        <v>875</v>
+      </c>
+      <c r="U17" s="7"/>
+      <c r="V17" s="8">
+        <f t="shared" ref="V17:V18" si="18">Q17+350</f>
+        <v>1225</v>
+      </c>
     </row>
-    <row r="18" spans="3:17">
+    <row r="18" spans="3:22">
       <c r="C18">
         <f>C17+1</f>
         <v>12</v>
@@ -19873,20 +20114,38 @@
         <v>12</v>
       </c>
       <c r="P18" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>1225</v>
       </c>
       <c r="Q18" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>875</v>
       </c>
+      <c r="S18" t="s">
+        <v>5</v>
+      </c>
+      <c r="T18" s="7">
+        <f t="shared" si="17"/>
+        <v>1575</v>
+      </c>
+      <c r="U18" s="7"/>
+      <c r="V18" s="8">
+        <f t="shared" si="18"/>
+        <v>1225</v>
+      </c>
     </row>
-    <row r="19" spans="3:17">
+    <row r="19" spans="3:22">
       <c r="O19" s="6"/>
       <c r="P19" s="7"/>
       <c r="Q19" s="8"/>
+      <c r="S19" t="s">
+        <v>5</v>
+      </c>
+      <c r="T19" s="7"/>
+      <c r="U19" s="7"/>
+      <c r="V19" s="8"/>
     </row>
-    <row r="20" spans="3:17">
+    <row r="20" spans="3:22">
       <c r="C20">
         <f>C18+1</f>
         <v>13</v>
@@ -19910,15 +20169,27 @@
         <v>13</v>
       </c>
       <c r="P20" s="7">
-        <f t="shared" ref="P20:P23" si="11">L20+350</f>
+        <f t="shared" ref="P20:P23" si="19">L20+350</f>
         <v>350</v>
       </c>
       <c r="Q20" s="8">
-        <f t="shared" ref="Q20:Q23" si="12">M20+350</f>
+        <f t="shared" ref="Q20:Q23" si="20">M20+350</f>
         <v>700</v>
       </c>
+      <c r="S20" t="s">
+        <v>5</v>
+      </c>
+      <c r="T20" s="7">
+        <f t="shared" ref="T20:T23" si="21">P20+350</f>
+        <v>700</v>
+      </c>
+      <c r="U20" s="7"/>
+      <c r="V20" s="8">
+        <f t="shared" ref="V20:V23" si="22">Q20+350</f>
+        <v>1050</v>
+      </c>
     </row>
-    <row r="21" spans="3:17">
+    <row r="21" spans="3:22">
       <c r="C21">
         <f>C20+1</f>
         <v>14</v>
@@ -19942,17 +20213,29 @@
         <v>14</v>
       </c>
       <c r="P21" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>700</v>
       </c>
       <c r="Q21" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="20"/>
         <v>700</v>
       </c>
+      <c r="S21" t="s">
+        <v>5</v>
+      </c>
+      <c r="T21" s="7">
+        <f t="shared" si="21"/>
+        <v>1050</v>
+      </c>
+      <c r="U21" s="7"/>
+      <c r="V21" s="8">
+        <f t="shared" si="22"/>
+        <v>1050</v>
+      </c>
     </row>
-    <row r="22" spans="3:17">
+    <row r="22" spans="3:22">
       <c r="C22">
-        <f t="shared" ref="C22:C23" si="13">C21+1</f>
+        <f t="shared" ref="C22:C23" si="23">C21+1</f>
         <v>15</v>
       </c>
       <c r="D22">
@@ -19974,17 +20257,29 @@
         <v>15</v>
       </c>
       <c r="P22" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>1050</v>
       </c>
       <c r="Q22" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="20"/>
         <v>700</v>
       </c>
+      <c r="S22" t="s">
+        <v>5</v>
+      </c>
+      <c r="T22" s="7">
+        <f t="shared" si="21"/>
+        <v>1400</v>
+      </c>
+      <c r="U22" s="7"/>
+      <c r="V22" s="8">
+        <f t="shared" si="22"/>
+        <v>1050</v>
+      </c>
     </row>
-    <row r="23" spans="3:17">
+    <row r="23" spans="3:22">
       <c r="C23">
-        <f t="shared" si="13"/>
+        <f t="shared" si="23"/>
         <v>16</v>
       </c>
       <c r="D23">
@@ -20006,20 +20301,38 @@
         <v>16</v>
       </c>
       <c r="P23" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>1400</v>
       </c>
       <c r="Q23" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="20"/>
         <v>700</v>
       </c>
+      <c r="S23" t="s">
+        <v>5</v>
+      </c>
+      <c r="T23" s="7">
+        <f t="shared" si="21"/>
+        <v>1750</v>
+      </c>
+      <c r="U23" s="7"/>
+      <c r="V23" s="8">
+        <f t="shared" si="22"/>
+        <v>1050</v>
+      </c>
     </row>
-    <row r="24" spans="3:17">
+    <row r="24" spans="3:22">
       <c r="O24" s="6"/>
       <c r="P24" s="7"/>
       <c r="Q24" s="8"/>
+      <c r="S24" t="s">
+        <v>5</v>
+      </c>
+      <c r="T24" s="7"/>
+      <c r="U24" s="7"/>
+      <c r="V24" s="8"/>
     </row>
-    <row r="25" spans="3:17">
+    <row r="25" spans="3:22">
       <c r="C25">
         <f>C23+1</f>
         <v>17</v>
@@ -20043,15 +20356,27 @@
         <v>17</v>
       </c>
       <c r="P25" s="7">
-        <f t="shared" ref="P25:P27" si="14">L25+350</f>
+        <f t="shared" ref="P25:P27" si="24">L25+350</f>
         <v>525</v>
       </c>
       <c r="Q25" s="8">
-        <f t="shared" ref="Q25:Q27" si="15">M25+350</f>
+        <f t="shared" ref="Q25:Q27" si="25">M25+350</f>
         <v>525</v>
       </c>
+      <c r="S25" t="s">
+        <v>5</v>
+      </c>
+      <c r="T25" s="7">
+        <f t="shared" ref="T25:T27" si="26">P25+350</f>
+        <v>875</v>
+      </c>
+      <c r="U25" s="7"/>
+      <c r="V25" s="8">
+        <f t="shared" ref="V25:V27" si="27">Q25+350</f>
+        <v>875</v>
+      </c>
     </row>
-    <row r="26" spans="3:17">
+    <row r="26" spans="3:22">
       <c r="C26">
         <f>C25+1</f>
         <v>18</v>
@@ -20076,15 +20401,27 @@
         <v>18</v>
       </c>
       <c r="P26" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="24"/>
         <v>875</v>
       </c>
       <c r="Q26" s="8">
-        <f t="shared" si="15"/>
+        <f t="shared" si="25"/>
         <v>525</v>
       </c>
+      <c r="S26" t="s">
+        <v>5</v>
+      </c>
+      <c r="T26" s="7">
+        <f t="shared" si="26"/>
+        <v>1225</v>
+      </c>
+      <c r="U26" s="7"/>
+      <c r="V26" s="8">
+        <f t="shared" si="27"/>
+        <v>875</v>
+      </c>
     </row>
-    <row r="27" spans="3:17">
+    <row r="27" spans="3:22">
       <c r="C27">
         <f>C26+1</f>
         <v>19</v>
@@ -20109,20 +20446,38 @@
         <v>19</v>
       </c>
       <c r="P27" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="24"/>
         <v>1225</v>
       </c>
       <c r="Q27" s="8">
-        <f t="shared" si="15"/>
+        <f t="shared" si="25"/>
         <v>525</v>
       </c>
+      <c r="S27" t="s">
+        <v>5</v>
+      </c>
+      <c r="T27" s="7">
+        <f t="shared" si="26"/>
+        <v>1575</v>
+      </c>
+      <c r="U27" s="7"/>
+      <c r="V27" s="8">
+        <f t="shared" si="27"/>
+        <v>875</v>
+      </c>
     </row>
-    <row r="28" spans="3:17">
+    <row r="28" spans="3:22">
       <c r="O28" s="6"/>
       <c r="P28" s="7"/>
       <c r="Q28" s="8"/>
+      <c r="S28" t="s">
+        <v>5</v>
+      </c>
+      <c r="T28" s="7"/>
+      <c r="U28" s="7"/>
+      <c r="V28" s="8"/>
     </row>
-    <row r="29" spans="3:17">
+    <row r="29" spans="3:22">
       <c r="C29">
         <f>C27+1</f>
         <v>20</v>
@@ -20146,15 +20501,27 @@
         <v>20</v>
       </c>
       <c r="P29" s="7">
-        <f t="shared" ref="P29:P32" si="16">L29+350</f>
+        <f t="shared" ref="P29:P32" si="28">L29+350</f>
         <v>350</v>
       </c>
       <c r="Q29" s="8">
-        <f t="shared" ref="Q29:Q32" si="17">M29+350</f>
+        <f t="shared" ref="Q29:Q32" si="29">M29+350</f>
         <v>350</v>
       </c>
+      <c r="S29" t="s">
+        <v>5</v>
+      </c>
+      <c r="T29" s="7">
+        <f t="shared" ref="T29:T32" si="30">P29+350</f>
+        <v>700</v>
+      </c>
+      <c r="U29" s="7"/>
+      <c r="V29" s="8">
+        <f t="shared" ref="V29:V32" si="31">Q29+350</f>
+        <v>700</v>
+      </c>
     </row>
-    <row r="30" spans="3:17">
+    <row r="30" spans="3:22">
       <c r="C30">
         <f>C29+1</f>
         <v>21</v>
@@ -20178,17 +20545,29 @@
         <v>21</v>
       </c>
       <c r="P30" s="7">
-        <f t="shared" si="16"/>
+        <f t="shared" si="28"/>
         <v>700</v>
       </c>
       <c r="Q30" s="8">
-        <f t="shared" si="17"/>
+        <f t="shared" si="29"/>
         <v>350</v>
       </c>
+      <c r="S30" t="s">
+        <v>5</v>
+      </c>
+      <c r="T30" s="7">
+        <f t="shared" si="30"/>
+        <v>1050</v>
+      </c>
+      <c r="U30" s="7"/>
+      <c r="V30" s="8">
+        <f t="shared" si="31"/>
+        <v>700</v>
+      </c>
     </row>
-    <row r="31" spans="3:17">
+    <row r="31" spans="3:22">
       <c r="C31">
-        <f t="shared" ref="C31:C32" si="18">C30+1</f>
+        <f t="shared" ref="C31:C32" si="32">C30+1</f>
         <v>22</v>
       </c>
       <c r="D31">
@@ -20210,17 +20589,29 @@
         <v>22</v>
       </c>
       <c r="P31" s="7">
-        <f t="shared" si="16"/>
+        <f t="shared" si="28"/>
         <v>1050</v>
       </c>
       <c r="Q31" s="8">
-        <f t="shared" si="17"/>
+        <f t="shared" si="29"/>
         <v>350</v>
       </c>
+      <c r="S31" t="s">
+        <v>5</v>
+      </c>
+      <c r="T31" s="7">
+        <f t="shared" si="30"/>
+        <v>1400</v>
+      </c>
+      <c r="U31" s="7"/>
+      <c r="V31" s="8">
+        <f t="shared" si="31"/>
+        <v>700</v>
+      </c>
     </row>
-    <row r="32" spans="3:17" ht="21" thickBot="1">
+    <row r="32" spans="3:22" ht="21" thickBot="1">
       <c r="C32">
-        <f t="shared" si="18"/>
+        <f t="shared" si="32"/>
         <v>23</v>
       </c>
       <c r="D32">
@@ -20242,12 +20633,432 @@
         <v>23</v>
       </c>
       <c r="P32" s="10">
-        <f t="shared" si="16"/>
+        <f t="shared" si="28"/>
         <v>1400</v>
       </c>
       <c r="Q32" s="11">
-        <f t="shared" si="17"/>
+        <f t="shared" si="29"/>
         <v>350</v>
+      </c>
+      <c r="S32" t="s">
+        <v>5</v>
+      </c>
+      <c r="T32" s="10">
+        <f t="shared" si="30"/>
+        <v>1750</v>
+      </c>
+      <c r="U32" s="10"/>
+      <c r="V32" s="11">
+        <f t="shared" si="31"/>
+        <v>700</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" t="s">
+        <v>5</v>
+      </c>
+      <c r="B37">
+        <v>350</v>
+      </c>
+      <c r="C37" t="s">
+        <v>8</v>
+      </c>
+      <c r="D37">
+        <v>1400</v>
+      </c>
+      <c r="E37" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" t="s">
+        <v>5</v>
+      </c>
+      <c r="B38">
+        <v>700</v>
+      </c>
+      <c r="C38" t="s">
+        <v>8</v>
+      </c>
+      <c r="D38">
+        <v>1400</v>
+      </c>
+      <c r="E38" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" t="s">
+        <v>5</v>
+      </c>
+      <c r="B39">
+        <v>1050</v>
+      </c>
+      <c r="C39" t="s">
+        <v>8</v>
+      </c>
+      <c r="D39">
+        <v>1400</v>
+      </c>
+      <c r="E39" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" t="s">
+        <v>5</v>
+      </c>
+      <c r="B40">
+        <v>1400</v>
+      </c>
+      <c r="C40" t="s">
+        <v>8</v>
+      </c>
+      <c r="D40">
+        <v>1400</v>
+      </c>
+      <c r="E40" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" t="s">
+        <v>5</v>
+      </c>
+      <c r="B42">
+        <v>525</v>
+      </c>
+      <c r="C42" t="s">
+        <v>8</v>
+      </c>
+      <c r="D42">
+        <v>1225</v>
+      </c>
+      <c r="E42" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" t="s">
+        <v>5</v>
+      </c>
+      <c r="B43">
+        <v>875</v>
+      </c>
+      <c r="C43" t="s">
+        <v>8</v>
+      </c>
+      <c r="D43">
+        <v>1225</v>
+      </c>
+      <c r="E43" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" t="s">
+        <v>5</v>
+      </c>
+      <c r="B44">
+        <v>1225</v>
+      </c>
+      <c r="C44" t="s">
+        <v>8</v>
+      </c>
+      <c r="D44">
+        <v>1225</v>
+      </c>
+      <c r="E44" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" t="s">
+        <v>5</v>
+      </c>
+      <c r="B46">
+        <v>350</v>
+      </c>
+      <c r="C46" t="s">
+        <v>8</v>
+      </c>
+      <c r="D46">
+        <v>1050</v>
+      </c>
+      <c r="E46" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" t="s">
+        <v>5</v>
+      </c>
+      <c r="B47">
+        <v>700</v>
+      </c>
+      <c r="C47" t="s">
+        <v>8</v>
+      </c>
+      <c r="D47">
+        <v>1050</v>
+      </c>
+      <c r="E47" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" t="s">
+        <v>5</v>
+      </c>
+      <c r="B48">
+        <v>1050</v>
+      </c>
+      <c r="C48" t="s">
+        <v>8</v>
+      </c>
+      <c r="D48">
+        <v>1050</v>
+      </c>
+      <c r="E48" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" t="s">
+        <v>5</v>
+      </c>
+      <c r="B49">
+        <v>1400</v>
+      </c>
+      <c r="C49" t="s">
+        <v>8</v>
+      </c>
+      <c r="D49">
+        <v>1050</v>
+      </c>
+      <c r="E49" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" t="s">
+        <v>5</v>
+      </c>
+      <c r="B51">
+        <v>525</v>
+      </c>
+      <c r="C51" t="s">
+        <v>8</v>
+      </c>
+      <c r="D51">
+        <v>875</v>
+      </c>
+      <c r="E51" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52" t="s">
+        <v>5</v>
+      </c>
+      <c r="B52">
+        <v>1225</v>
+      </c>
+      <c r="C52" t="s">
+        <v>8</v>
+      </c>
+      <c r="D52">
+        <v>875</v>
+      </c>
+      <c r="E52" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54" t="s">
+        <v>5</v>
+      </c>
+      <c r="B54">
+        <v>350</v>
+      </c>
+      <c r="C54" t="s">
+        <v>8</v>
+      </c>
+      <c r="D54">
+        <v>700</v>
+      </c>
+      <c r="E54" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55" t="s">
+        <v>5</v>
+      </c>
+      <c r="B55">
+        <v>700</v>
+      </c>
+      <c r="C55" t="s">
+        <v>8</v>
+      </c>
+      <c r="D55">
+        <v>700</v>
+      </c>
+      <c r="E55" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56" t="s">
+        <v>5</v>
+      </c>
+      <c r="B56">
+        <v>1050</v>
+      </c>
+      <c r="C56" t="s">
+        <v>8</v>
+      </c>
+      <c r="D56">
+        <v>700</v>
+      </c>
+      <c r="E56" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57" t="s">
+        <v>5</v>
+      </c>
+      <c r="B57">
+        <v>1400</v>
+      </c>
+      <c r="C57" t="s">
+        <v>8</v>
+      </c>
+      <c r="D57">
+        <v>700</v>
+      </c>
+      <c r="E57" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="A59" t="s">
+        <v>5</v>
+      </c>
+      <c r="B59">
+        <v>525</v>
+      </c>
+      <c r="C59" t="s">
+        <v>8</v>
+      </c>
+      <c r="D59">
+        <v>525</v>
+      </c>
+      <c r="E59" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60" t="s">
+        <v>5</v>
+      </c>
+      <c r="B60">
+        <v>875</v>
+      </c>
+      <c r="C60" t="s">
+        <v>8</v>
+      </c>
+      <c r="D60">
+        <v>525</v>
+      </c>
+      <c r="E60" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="A61" t="s">
+        <v>5</v>
+      </c>
+      <c r="B61">
+        <v>1225</v>
+      </c>
+      <c r="C61" t="s">
+        <v>8</v>
+      </c>
+      <c r="D61">
+        <v>525</v>
+      </c>
+      <c r="E61" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
+      <c r="A63" t="s">
+        <v>5</v>
+      </c>
+      <c r="B63">
+        <v>350</v>
+      </c>
+      <c r="C63" t="s">
+        <v>8</v>
+      </c>
+      <c r="D63">
+        <v>350</v>
+      </c>
+      <c r="E63" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
+      <c r="A64" t="s">
+        <v>5</v>
+      </c>
+      <c r="B64">
+        <v>700</v>
+      </c>
+      <c r="C64" t="s">
+        <v>8</v>
+      </c>
+      <c r="D64">
+        <v>350</v>
+      </c>
+      <c r="E64" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
+      <c r="A65" t="s">
+        <v>5</v>
+      </c>
+      <c r="B65">
+        <v>1050</v>
+      </c>
+      <c r="C65" t="s">
+        <v>8</v>
+      </c>
+      <c r="D65">
+        <v>350</v>
+      </c>
+      <c r="E65" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5">
+      <c r="A66" t="s">
+        <v>5</v>
+      </c>
+      <c r="B66">
+        <v>1400</v>
+      </c>
+      <c r="C66" t="s">
+        <v>8</v>
+      </c>
+      <c r="D66">
+        <v>350</v>
+      </c>
+      <c r="E66" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -20255,6 +21066,180 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADB31D74-F2A3-584B-99E4-A77391219962}">
+  <dimension ref="A2:D23"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
+  <cols>
+    <col min="2" max="2" width="27.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4">
+        <f>0*D5</f>
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <f>PI()</f>
+        <v>3.1415926535897931</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5">
+        <v>100</v>
+      </c>
+      <c r="D5">
+        <f>D4/180</f>
+        <v>1.7453292519943295E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9">
+        <f>B8</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11">
+        <f>B5-B2</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12">
+        <f>B6-B3</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14">
+        <f>B9*C14</f>
+        <v>100</v>
+      </c>
+      <c r="C14">
+        <f>COS(B4)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15">
+        <f>B9*C15</f>
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <f>SIN(B4)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17">
+        <f>(B11*B15)-(B12*B14)</f>
+        <v>-10000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18">
+        <f>B11^2</f>
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19">
+        <f>B12^2</f>
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21">
+        <f>SQRT(B18+B19)</f>
+        <v>141.42135623730951</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <f>B17/B21</f>
+        <v>-70.710678118654755</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 

--- a/Documents/Lコース座標.xlsx
+++ b/Documents/Lコース座標.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/KaoruOta/ET_Robocon/ev3rt-beta7-release/hrp2/sdk/workspace/hiro_jiren/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{5FF9DD36-15B7-2C4D-85CE-9449309B9348}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{9FD684D8-1EA5-674C-8717-BF6D98D22A70}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16660" yWindow="460" windowWidth="21440" windowHeight="20260" firstSheet="7" activeTab="13" xr2:uid="{6DB03CC7-F739-074A-9B67-9A070117031E}"/>
+    <workbookView xWindow="16140" yWindow="460" windowWidth="12660" windowHeight="17540" activeTab="6" xr2:uid="{6DB03CC7-F739-074A-9B67-9A070117031E}"/>
   </bookViews>
   <sheets>
     <sheet name="Start-1st_CR" sheetId="1" r:id="rId1"/>
@@ -19,14 +19,15 @@
     <sheet name="4th_cn" sheetId="6" r:id="rId4"/>
     <sheet name="8th_cn" sheetId="7" r:id="rId5"/>
     <sheet name="9th_cn" sheetId="8" r:id="rId6"/>
-    <sheet name="カメラ画像" sheetId="9" r:id="rId7"/>
-    <sheet name="補正画像" sheetId="10" r:id="rId8"/>
-    <sheet name="Sheet1" sheetId="14" r:id="rId9"/>
-    <sheet name="走行コンセプト①" sheetId="11" r:id="rId10"/>
-    <sheet name="走行コンセプト②" sheetId="12" r:id="rId11"/>
-    <sheet name="走行コンセプト③" sheetId="13" r:id="rId12"/>
-    <sheet name="ブロックビンコ" sheetId="15" r:id="rId13"/>
-    <sheet name="Sheet2" sheetId="16" r:id="rId14"/>
+    <sheet name="Sheet3" sheetId="17" r:id="rId7"/>
+    <sheet name="カメラ画像" sheetId="9" r:id="rId8"/>
+    <sheet name="補正画像" sheetId="10" r:id="rId9"/>
+    <sheet name="Sheet1" sheetId="14" r:id="rId10"/>
+    <sheet name="走行コンセプト①" sheetId="11" r:id="rId11"/>
+    <sheet name="走行コンセプト②" sheetId="12" r:id="rId12"/>
+    <sheet name="走行コンセプト③" sheetId="13" r:id="rId13"/>
+    <sheet name="ブロックビンコ" sheetId="15" r:id="rId14"/>
+    <sheet name="Sheet2" sheetId="16" r:id="rId15"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -19418,6 +19419,19 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F9F3098-9E40-9743-A996-E0ABF115B044}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CD11F90-6172-504F-8D09-785584568889}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -19433,7 +19447,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4E69A08-6157-3046-A0AD-F5965CF91422}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -19449,7 +19463,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB0DD1CD-4FA4-9E45-B6BB-0F24850E37CC}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -19465,7 +19479,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC0D6C9E-10A1-E446-929B-01BD39C51451}">
   <dimension ref="A1:X66"/>
   <sheetViews>
@@ -21069,11 +21083,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADB31D74-F2A3-584B-99E4-A77391219962}">
   <dimension ref="A2:D23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
@@ -21323,7 +21337,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2D3F457-5443-8140-A1C2-32A729A4C0D5}">
   <dimension ref="EI332"/>
   <sheetViews>
-    <sheetView topLeftCell="A99" zoomScale="10" zoomScaleNormal="10" workbookViewId="0">
+    <sheetView topLeftCell="A52" zoomScale="10" zoomScaleNormal="10" workbookViewId="0">
       <selection activeCell="FQ248" sqref="FQ248"/>
     </sheetView>
   </sheetViews>
@@ -21342,6 +21356,71 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96338A6B-9E08-C749-864D-C0CF856AB0DF}">
+  <dimension ref="A3:C6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4:C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
+  <sheetData>
+    <row r="3" spans="1:3">
+      <c r="A3">
+        <v>232</v>
+      </c>
+      <c r="B3">
+        <v>1280</v>
+      </c>
+      <c r="C3">
+        <f>B3-A3</f>
+        <v>1048</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4">
+        <v>646</v>
+      </c>
+      <c r="B4">
+        <v>1280</v>
+      </c>
+      <c r="C4">
+        <f t="shared" ref="C4:C6" si="0">B4-A4</f>
+        <v>634</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5">
+        <v>1214</v>
+      </c>
+      <c r="B5">
+        <v>1280</v>
+      </c>
+      <c r="C5">
+        <f t="shared" si="0"/>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6">
+        <v>1124</v>
+      </c>
+      <c r="B6">
+        <v>1280</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="0"/>
+        <v>156</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A471FDE8-B665-8644-A301-27AF1529F2A3}">
   <dimension ref="J17"/>
   <sheetViews>
@@ -21361,7 +21440,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECF1118A-BD67-BB41-B9F3-FB6B0BE6E76F}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -21375,17 +21454,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F9F3098-9E40-9743-A996-E0ABF115B044}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
-  <sheetData/>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>